--- a/uniqorn-frontend/public/data/CurrentSeason_UniqornGames_Master.xlsx
+++ b/uniqorn-frontend/public/data/CurrentSeason_UniqornGames_Master.xlsx
@@ -523,10 +523,10 @@
         <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -563,10 +563,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -603,10 +603,10 @@
         <v>17</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -643,10 +643,10 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -763,10 +763,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -803,10 +803,10 @@
         <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -843,10 +843,10 @@
         <v>13</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -883,10 +883,10 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -923,10 +923,10 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -963,10 +963,10 @@
         <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1003,10 +1003,10 @@
         <v>15</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1043,10 +1043,10 @@
         <v>9</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1083,10 +1083,10 @@
         <v>9</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1123,10 +1123,10 @@
         <v>2</v>
       </c>
       <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
         <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1163,10 +1163,10 @@
         <v>9</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1203,10 +1203,10 @@
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1243,10 +1243,10 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1283,10 +1283,10 @@
         <v>22</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1323,10 +1323,10 @@
         <v>8</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1363,10 +1363,10 @@
         <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1403,10 +1403,10 @@
         <v>12</v>
       </c>
       <c r="I24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" t="n">
         <v>3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1443,10 +1443,10 @@
         <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1483,10 +1483,10 @@
         <v>12</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1523,10 +1523,10 @@
         <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1563,10 +1563,10 @@
         <v>13</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1603,10 +1603,10 @@
         <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1683,10 +1683,10 @@
         <v>9</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1723,10 +1723,10 @@
         <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1763,10 +1763,10 @@
         <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1803,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>6</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1843,10 +1843,10 @@
         <v>9</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1883,10 +1883,10 @@
         <v>6</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1923,10 +1923,10 @@
         <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1963,10 +1963,10 @@
         <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -2003,10 +2003,10 @@
         <v>3</v>
       </c>
       <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" t="n">
         <v>5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -2043,10 +2043,10 @@
         <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2083,10 +2083,10 @@
         <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2123,10 +2123,10 @@
         <v>10</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2163,10 +2163,10 @@
         <v>3</v>
       </c>
       <c r="I43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" t="n">
         <v>6</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2203,10 +2203,10 @@
         <v>3</v>
       </c>
       <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
         <v>5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2283,10 +2283,10 @@
         <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2363,10 +2363,10 @@
         <v>8</v>
       </c>
       <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
         <v>3</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2403,10 +2403,10 @@
         <v>7</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -2443,10 +2443,10 @@
         <v>4</v>
       </c>
       <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
         <v>6</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2483,10 +2483,10 @@
         <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2523,10 +2523,10 @@
         <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -2603,10 +2603,10 @@
         <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -2643,10 +2643,10 @@
         <v>12</v>
       </c>
       <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
         <v>3</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2683,10 +2683,10 @@
         <v>9</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -2723,10 +2723,10 @@
         <v>8</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J57" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2763,10 +2763,10 @@
         <v>14</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -2803,10 +2803,10 @@
         <v>6</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2923,10 +2923,10 @@
         <v>9</v>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -2963,10 +2963,10 @@
         <v>6</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3043,10 +3043,10 @@
         <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3083,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J66" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -3123,10 +3123,10 @@
         <v>13</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -3163,10 +3163,10 @@
         <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -3203,10 +3203,10 @@
         <v>6</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J70" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -3363,10 +3363,10 @@
         <v>6</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3443,10 +3443,10 @@
         <v>10</v>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -3483,10 +3483,10 @@
         <v>12</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -3523,10 +3523,10 @@
         <v>10</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J77" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3563,10 +3563,10 @@
         <v>15</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3603,10 +3603,10 @@
         <v>6</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -3643,10 +3643,10 @@
         <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -3723,10 +3723,10 @@
         <v>9</v>
       </c>
       <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
         <v>3</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -3763,10 +3763,10 @@
         <v>13</v>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -3803,10 +3803,10 @@
         <v>6</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -3843,10 +3843,10 @@
         <v>10</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -3883,10 +3883,10 @@
         <v>3</v>
       </c>
       <c r="I86" t="n">
+        <v>4</v>
+      </c>
+      <c r="J86" t="n">
         <v>3</v>
-      </c>
-      <c r="J86" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -3963,10 +3963,10 @@
         <v>8</v>
       </c>
       <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
         <v>3</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -4043,10 +4043,10 @@
         <v>3</v>
       </c>
       <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
         <v>5</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -4083,10 +4083,10 @@
         <v>4</v>
       </c>
       <c r="I91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -4203,10 +4203,10 @@
         <v>1</v>
       </c>
       <c r="I94" t="n">
+        <v>2</v>
+      </c>
+      <c r="J94" t="n">
         <v>6</v>
-      </c>
-      <c r="J94" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -4243,10 +4243,10 @@
         <v>4</v>
       </c>
       <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
         <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -4283,10 +4283,10 @@
         <v>6</v>
       </c>
       <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
         <v>7</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4363,10 +4363,10 @@
         <v>10</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
         <v>3</v>
-      </c>
-      <c r="J99" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="100">
@@ -4443,10 +4443,10 @@
         <v>1</v>
       </c>
       <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
         <v>6</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -4483,10 +4483,10 @@
         <v>5</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J101" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -4523,10 +4523,10 @@
         <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
@@ -4563,10 +4563,10 @@
         <v>9</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J103" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -4603,10 +4603,10 @@
         <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
@@ -4643,10 +4643,10 @@
         <v>3</v>
       </c>
       <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
         <v>5</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4723,10 +4723,10 @@
         <v>4</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J107" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -4763,10 +4763,10 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
         <v>6</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -4803,10 +4803,10 @@
         <v>15</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -4843,10 +4843,10 @@
         <v>14</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J110" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4923,10 +4923,10 @@
         <v>10</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J112" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J113" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J114" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -5043,10 +5043,10 @@
         <v>9</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -5123,10 +5123,10 @@
         <v>9</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J117" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -5203,10 +5203,10 @@
         <v>6</v>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -5243,10 +5243,10 @@
         <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121">
@@ -5363,10 +5363,10 @@
         <v>6</v>
       </c>
       <c r="I123" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124">
@@ -5403,10 +5403,10 @@
         <v>1</v>
       </c>
       <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
         <v>3</v>
-      </c>
-      <c r="J124" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -5443,10 +5443,10 @@
         <v>13</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -5483,10 +5483,10 @@
         <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J126" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
@@ -5523,10 +5523,10 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J127" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -5563,10 +5563,10 @@
         <v>10</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J131" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -5763,10 +5763,10 @@
         <v>4</v>
       </c>
       <c r="I133" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134">
@@ -5803,10 +5803,10 @@
         <v>4</v>
       </c>
       <c r="I134" t="n">
+        <v>2</v>
+      </c>
+      <c r="J134" t="n">
         <v>5</v>
-      </c>
-      <c r="J134" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -5843,10 +5843,10 @@
         <v>7</v>
       </c>
       <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
         <v>5</v>
-      </c>
-      <c r="J135" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -5883,10 +5883,10 @@
         <v>5</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J136" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -5923,10 +5923,10 @@
         <v>6</v>
       </c>
       <c r="I137" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J137" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -6003,10 +6003,10 @@
         <v>5</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J139" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -6043,10 +6043,10 @@
         <v>8</v>
       </c>
       <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
         <v>3</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -6083,10 +6083,10 @@
         <v>10</v>
       </c>
       <c r="I141" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
@@ -6123,10 +6123,10 @@
         <v>1</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -6163,10 +6163,10 @@
         <v>10</v>
       </c>
       <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
         <v>3</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -6203,10 +6203,10 @@
         <v>10</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J144" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -6243,10 +6243,10 @@
         <v>16</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -6323,10 +6323,10 @@
         <v>5</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -6363,10 +6363,10 @@
         <v>4</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -6443,10 +6443,10 @@
         <v>14</v>
       </c>
       <c r="I150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -6483,10 +6483,10 @@
         <v>14</v>
       </c>
       <c r="I151" t="n">
+        <v>2</v>
+      </c>
+      <c r="J151" t="n">
         <v>5</v>
-      </c>
-      <c r="J151" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -6523,10 +6523,10 @@
         <v>3</v>
       </c>
       <c r="I152" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153">
@@ -6563,10 +6563,10 @@
         <v>8</v>
       </c>
       <c r="I153" t="n">
+        <v>6</v>
+      </c>
+      <c r="J153" t="n">
         <v>3</v>
-      </c>
-      <c r="J153" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="154">
@@ -6603,10 +6603,10 @@
         <v>1</v>
       </c>
       <c r="I154" t="n">
+        <v>5</v>
+      </c>
+      <c r="J154" t="n">
         <v>3</v>
-      </c>
-      <c r="J154" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="155">
@@ -6643,10 +6643,10 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
         <v>5</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -6683,10 +6683,10 @@
         <v>10</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -6723,10 +6723,10 @@
         <v>4</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J157" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -6763,10 +6763,10 @@
         <v>14</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J158" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -6803,10 +6803,10 @@
         <v>2</v>
       </c>
       <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
         <v>3</v>
-      </c>
-      <c r="J159" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -6843,10 +6843,10 @@
         <v>4</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -7003,10 +7003,10 @@
         <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -7043,10 +7043,10 @@
         <v>4</v>
       </c>
       <c r="I165" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J165" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166">
@@ -7083,10 +7083,10 @@
         <v>7</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -7123,10 +7123,10 @@
         <v>4</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J167" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -7163,10 +7163,10 @@
         <v>12</v>
       </c>
       <c r="I168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -7203,10 +7203,10 @@
         <v>2</v>
       </c>
       <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
         <v>5</v>
-      </c>
-      <c r="J169" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -7323,10 +7323,10 @@
         <v>4</v>
       </c>
       <c r="I172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -7363,10 +7363,10 @@
         <v>4</v>
       </c>
       <c r="I173" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J173" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174">
@@ -7403,10 +7403,10 @@
         <v>8</v>
       </c>
       <c r="I174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -7523,10 +7523,10 @@
         <v>6</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J177" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -7563,10 +7563,10 @@
         <v>6</v>
       </c>
       <c r="I178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -7643,10 +7643,10 @@
         <v>5</v>
       </c>
       <c r="I180" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J180" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -7683,10 +7683,10 @@
         <v>3</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -7723,10 +7723,10 @@
         <v>11</v>
       </c>
       <c r="I182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -7763,10 +7763,10 @@
         <v>8</v>
       </c>
       <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
         <v>5</v>
-      </c>
-      <c r="J183" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -7803,10 +7803,10 @@
         <v>14</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -7843,10 +7843,10 @@
         <v>2</v>
       </c>
       <c r="I185" t="n">
+        <v>2</v>
+      </c>
+      <c r="J185" t="n">
         <v>3</v>
-      </c>
-      <c r="J185" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -7883,10 +7883,10 @@
         <v>6</v>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J186" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -7923,10 +7923,10 @@
         <v>9</v>
       </c>
       <c r="I187" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J187" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188">
@@ -7963,10 +7963,10 @@
         <v>7</v>
       </c>
       <c r="I188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -8003,10 +8003,10 @@
         <v>5</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J189" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -8043,10 +8043,10 @@
         <v>5</v>
       </c>
       <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
         <v>5</v>
-      </c>
-      <c r="J190" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -8083,10 +8083,10 @@
         <v>6</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J191" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -8123,10 +8123,10 @@
         <v>11</v>
       </c>
       <c r="I192" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J192" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -8203,10 +8203,10 @@
         <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J194" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -8243,10 +8243,10 @@
         <v>13</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J195" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -8283,10 +8283,10 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J196" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -8403,10 +8403,10 @@
         <v>3</v>
       </c>
       <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
         <v>3</v>
-      </c>
-      <c r="J199" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -8443,10 +8443,10 @@
         <v>3</v>
       </c>
       <c r="I200" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J200" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201">
@@ -8483,10 +8483,10 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J201" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -8563,10 +8563,10 @@
         <v>3</v>
       </c>
       <c r="I203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -8603,10 +8603,10 @@
         <v>12</v>
       </c>
       <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
         <v>3</v>
-      </c>
-      <c r="J204" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -8643,10 +8643,10 @@
         <v>6</v>
       </c>
       <c r="I205" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J205" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -8683,10 +8683,10 @@
         <v>4</v>
       </c>
       <c r="I206" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J206" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -8723,10 +8723,10 @@
         <v>6</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -8763,10 +8763,10 @@
         <v>1</v>
       </c>
       <c r="I208" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J208" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -8843,10 +8843,10 @@
         <v>13</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -8883,10 +8883,10 @@
         <v>5</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J211" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -8963,10 +8963,10 @@
         <v>6</v>
       </c>
       <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
         <v>5</v>
-      </c>
-      <c r="J213" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -9003,10 +9003,10 @@
         <v>1</v>
       </c>
       <c r="I214" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J214" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -9043,10 +9043,10 @@
         <v>16</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -9083,10 +9083,10 @@
         <v>2</v>
       </c>
       <c r="I216" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217">
@@ -9123,10 +9123,10 @@
         <v>1</v>
       </c>
       <c r="I217" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J217" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218">
@@ -9283,10 +9283,10 @@
         <v>4</v>
       </c>
       <c r="I221" t="n">
+        <v>3</v>
+      </c>
+      <c r="J221" t="n">
         <v>6</v>
-      </c>
-      <c r="J221" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -9323,10 +9323,10 @@
         <v>3</v>
       </c>
       <c r="I222" t="n">
+        <v>2</v>
+      </c>
+      <c r="J222" t="n">
         <v>3</v>
-      </c>
-      <c r="J222" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -9363,10 +9363,10 @@
         <v>9</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -9403,10 +9403,10 @@
         <v>1</v>
       </c>
       <c r="I224" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J224" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -9443,10 +9443,10 @@
         <v>7</v>
       </c>
       <c r="I225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -9483,10 +9483,10 @@
         <v>2</v>
       </c>
       <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
         <v>9</v>
-      </c>
-      <c r="J226" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -9523,10 +9523,10 @@
         <v>5</v>
       </c>
       <c r="I227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -9563,10 +9563,10 @@
         <v>1</v>
       </c>
       <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
         <v>3</v>
-      </c>
-      <c r="J228" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -9603,10 +9603,10 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J229" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230">
@@ -9643,10 +9643,10 @@
         <v>9</v>
       </c>
       <c r="I230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/uniqorn-frontend/public/data/CurrentSeason_UniqornGames_Master.xlsx
+++ b/uniqorn-frontend/public/data/CurrentSeason_UniqornGames_Master.xlsx
@@ -517,16 +517,16 @@
         <v>25</v>
       </c>
       <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
         <v>14</v>
       </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -557,16 +557,16 @@
         <v>41</v>
       </c>
       <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -597,16 +597,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="n">
+        <v>17</v>
+      </c>
+      <c r="H4" t="n">
         <v>14</v>
       </c>
-      <c r="H4" t="n">
-        <v>17</v>
-      </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -637,16 +637,16 @@
         <v>12</v>
       </c>
       <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -677,10 +677,10 @@
         <v>17</v>
       </c>
       <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
         <v>12</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
@@ -717,10 +717,10 @@
         <v>3</v>
       </c>
       <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" t="n">
         <v>14</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -763,10 +763,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -797,16 +797,16 @@
         <v>21</v>
       </c>
       <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -837,16 +837,16 @@
         <v>26</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H10" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -877,16 +877,16 @@
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -917,16 +917,16 @@
         <v>31</v>
       </c>
       <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
         <v>3</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -963,10 +963,10 @@
         <v>11</v>
       </c>
       <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
         <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -997,16 +997,16 @@
         <v>22</v>
       </c>
       <c r="G14" t="n">
+        <v>15</v>
+      </c>
+      <c r="H14" t="n">
         <v>16</v>
       </c>
-      <c r="H14" t="n">
-        <v>15</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1037,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="G15" t="n">
+        <v>9</v>
+      </c>
+      <c r="H15" t="n">
         <v>5</v>
       </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1077,16 +1077,16 @@
         <v>42</v>
       </c>
       <c r="G16" t="n">
+        <v>9</v>
+      </c>
+      <c r="H16" t="n">
         <v>8</v>
       </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1117,16 +1117,16 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
         <v>19</v>
       </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1157,16 +1157,16 @@
         <v>18</v>
       </c>
       <c r="G18" t="n">
+        <v>9</v>
+      </c>
+      <c r="H18" t="n">
         <v>6</v>
       </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1197,16 +1197,16 @@
         <v>16</v>
       </c>
       <c r="G19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" t="n">
         <v>16</v>
       </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
       <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
         <v>3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1237,16 +1237,16 @@
         <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1277,16 +1277,16 @@
         <v>17</v>
       </c>
       <c r="G21" t="n">
+        <v>22</v>
+      </c>
+      <c r="H21" t="n">
         <v>5</v>
       </c>
-      <c r="H21" t="n">
-        <v>22</v>
-      </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1317,16 +1317,16 @@
         <v>32</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1357,16 +1357,16 @@
         <v>26</v>
       </c>
       <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
         <v>16</v>
       </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1397,16 +1397,16 @@
         <v>18</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H24" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1437,16 +1437,16 @@
         <v>8</v>
       </c>
       <c r="G25" t="n">
+        <v>5</v>
+      </c>
+      <c r="H25" t="n">
         <v>12</v>
       </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1477,16 +1477,16 @@
         <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H26" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
         <v>5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1517,16 +1517,16 @@
         <v>40</v>
       </c>
       <c r="G27" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" t="n">
         <v>17</v>
       </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1557,16 +1557,16 @@
         <v>34</v>
       </c>
       <c r="G28" t="n">
+        <v>13</v>
+      </c>
+      <c r="H28" t="n">
         <v>5</v>
       </c>
-      <c r="H28" t="n">
-        <v>13</v>
-      </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1597,16 +1597,16 @@
         <v>7</v>
       </c>
       <c r="G29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="n">
         <v>8</v>
       </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1637,10 +1637,10 @@
         <v>9</v>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>16</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
@@ -1677,16 +1677,16 @@
         <v>7</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1717,16 +1717,16 @@
         <v>16</v>
       </c>
       <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
         <v>9</v>
       </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
       <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
         <v>6</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1757,16 +1757,16 @@
         <v>7</v>
       </c>
       <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="n">
         <v>8</v>
       </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1797,16 +1797,16 @@
         <v>21</v>
       </c>
       <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
         <v>14</v>
       </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1837,16 +1837,16 @@
         <v>15</v>
       </c>
       <c r="G35" t="n">
+        <v>9</v>
+      </c>
+      <c r="H35" t="n">
         <v>6</v>
       </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
       <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
         <v>5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1877,16 +1877,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1917,16 +1917,16 @@
         <v>4</v>
       </c>
       <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="n">
         <v>5</v>
       </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1957,16 +1957,16 @@
         <v>26</v>
       </c>
       <c r="G38" t="n">
+        <v>5</v>
+      </c>
+      <c r="H38" t="n">
         <v>7</v>
       </c>
-      <c r="H38" t="n">
-        <v>5</v>
-      </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1997,16 +1997,16 @@
         <v>28</v>
       </c>
       <c r="G39" t="n">
+        <v>3</v>
+      </c>
+      <c r="H39" t="n">
         <v>16</v>
       </c>
-      <c r="H39" t="n">
-        <v>3</v>
-      </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -2037,16 +2037,16 @@
         <v>26</v>
       </c>
       <c r="G40" t="n">
+        <v>5</v>
+      </c>
+      <c r="H40" t="n">
         <v>3</v>
       </c>
-      <c r="H40" t="n">
-        <v>5</v>
-      </c>
       <c r="I40" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" t="n">
         <v>6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2077,16 +2077,16 @@
         <v>8</v>
       </c>
       <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="n">
         <v>22</v>
       </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2117,16 +2117,16 @@
         <v>16</v>
       </c>
       <c r="G42" t="n">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
         <v>3</v>
       </c>
-      <c r="H42" t="n">
-        <v>10</v>
-      </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -2157,16 +2157,16 @@
         <v>29</v>
       </c>
       <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="n">
         <v>12</v>
       </c>
-      <c r="H43" t="n">
-        <v>3</v>
-      </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2197,16 +2197,16 @@
         <v>20</v>
       </c>
       <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="n">
         <v>14</v>
       </c>
-      <c r="H44" t="n">
-        <v>3</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2237,10 +2237,10 @@
         <v>5</v>
       </c>
       <c r="G45" t="n">
+        <v>13</v>
+      </c>
+      <c r="H45" t="n">
         <v>5</v>
-      </c>
-      <c r="H45" t="n">
-        <v>13</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -2277,16 +2277,16 @@
         <v>4</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
         <v>6</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2317,16 +2317,16 @@
         <v>16</v>
       </c>
       <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
         <v>16</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2357,16 +2357,16 @@
         <v>10</v>
       </c>
       <c r="G48" t="n">
+        <v>8</v>
+      </c>
+      <c r="H48" t="n">
         <v>11</v>
       </c>
-      <c r="H48" t="n">
-        <v>8</v>
-      </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2397,16 +2397,16 @@
         <v>29</v>
       </c>
       <c r="G49" t="n">
+        <v>7</v>
+      </c>
+      <c r="H49" t="n">
         <v>13</v>
       </c>
-      <c r="H49" t="n">
-        <v>7</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2437,16 +2437,16 @@
         <v>15</v>
       </c>
       <c r="G50" t="n">
+        <v>4</v>
+      </c>
+      <c r="H50" t="n">
         <v>9</v>
       </c>
-      <c r="H50" t="n">
-        <v>4</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J50" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2477,16 +2477,16 @@
         <v>13</v>
       </c>
       <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="n">
         <v>16</v>
       </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
       <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>3</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2517,16 +2517,16 @@
         <v>35</v>
       </c>
       <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="n">
         <v>8</v>
       </c>
-      <c r="H52" t="n">
-        <v>3</v>
-      </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2557,16 +2557,16 @@
         <v>7</v>
       </c>
       <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
         <v>5</v>
       </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
       <c r="I53" t="n">
+        <v>4</v>
+      </c>
+      <c r="J53" t="n">
         <v>3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -2597,16 +2597,16 @@
         <v>2</v>
       </c>
       <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="n">
         <v>13</v>
       </c>
-      <c r="H54" t="n">
-        <v>3</v>
-      </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2637,16 +2637,16 @@
         <v>23</v>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H55" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2677,16 +2677,16 @@
         <v>20</v>
       </c>
       <c r="G56" t="n">
+        <v>9</v>
+      </c>
+      <c r="H56" t="n">
         <v>13</v>
       </c>
-      <c r="H56" t="n">
-        <v>9</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2717,16 +2717,16 @@
         <v>29</v>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H57" t="n">
+        <v>4</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
         <v>8</v>
-      </c>
-      <c r="I57" t="n">
-        <v>8</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2757,16 +2757,16 @@
         <v>16</v>
       </c>
       <c r="G58" t="n">
+        <v>14</v>
+      </c>
+      <c r="H58" t="n">
         <v>3</v>
       </c>
-      <c r="H58" t="n">
-        <v>14</v>
-      </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2797,16 +2797,16 @@
         <v>28</v>
       </c>
       <c r="G59" t="n">
+        <v>6</v>
+      </c>
+      <c r="H59" t="n">
         <v>16</v>
       </c>
-      <c r="H59" t="n">
-        <v>6</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2837,10 +2837,10 @@
         <v>42</v>
       </c>
       <c r="G60" t="n">
+        <v>6</v>
+      </c>
+      <c r="H60" t="n">
         <v>3</v>
-      </c>
-      <c r="H60" t="n">
-        <v>6</v>
       </c>
       <c r="I60" t="n">
         <v>2</v>
@@ -2877,10 +2877,10 @@
         <v>55</v>
       </c>
       <c r="G61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2917,16 +2917,16 @@
         <v>22</v>
       </c>
       <c r="G62" t="n">
+        <v>9</v>
+      </c>
+      <c r="H62" t="n">
         <v>5</v>
       </c>
-      <c r="H62" t="n">
-        <v>9</v>
-      </c>
       <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
         <v>5</v>
-      </c>
-      <c r="J62" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -2957,16 +2957,16 @@
         <v>19</v>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H63" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -2997,10 +2997,10 @@
         <v>30</v>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
         <v>3</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>2</v>
@@ -3037,16 +3037,16 @@
         <v>26</v>
       </c>
       <c r="G65" t="n">
+        <v>4</v>
+      </c>
+      <c r="H65" t="n">
         <v>13</v>
       </c>
-      <c r="H65" t="n">
-        <v>4</v>
-      </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -3077,16 +3077,16 @@
         <v>10</v>
       </c>
       <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
         <v>3</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
         <v>6</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -3117,16 +3117,16 @@
         <v>26</v>
       </c>
       <c r="G67" t="n">
+        <v>13</v>
+      </c>
+      <c r="H67" t="n">
         <v>7</v>
       </c>
-      <c r="H67" t="n">
-        <v>13</v>
-      </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -3163,10 +3163,10 @@
         <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3197,16 +3197,16 @@
         <v>6</v>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -3237,16 +3237,16 @@
         <v>5</v>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
         <v>5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3277,16 +3277,16 @@
         <v>14</v>
       </c>
       <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
         <v>13</v>
       </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
       <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
         <v>3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -3317,10 +3317,10 @@
         <v>17</v>
       </c>
       <c r="G72" t="n">
+        <v>3</v>
+      </c>
+      <c r="H72" t="n">
         <v>15</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3</v>
       </c>
       <c r="I72" t="n">
         <v>3</v>
@@ -3357,16 +3357,16 @@
         <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H73" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -3397,16 +3397,16 @@
         <v>26</v>
       </c>
       <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="n">
         <v>8</v>
       </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -3437,16 +3437,16 @@
         <v>27</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H75" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3477,16 +3477,16 @@
         <v>14</v>
       </c>
       <c r="G76" t="n">
+        <v>12</v>
+      </c>
+      <c r="H76" t="n">
         <v>16</v>
       </c>
-      <c r="H76" t="n">
-        <v>12</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3517,16 +3517,16 @@
         <v>17</v>
       </c>
       <c r="G77" t="n">
+        <v>10</v>
+      </c>
+      <c r="H77" t="n">
         <v>11</v>
       </c>
-      <c r="H77" t="n">
-        <v>10</v>
-      </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -3557,16 +3557,16 @@
         <v>2</v>
       </c>
       <c r="G78" t="n">
+        <v>15</v>
+      </c>
+      <c r="H78" t="n">
         <v>6</v>
       </c>
-      <c r="H78" t="n">
-        <v>15</v>
-      </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3597,16 +3597,16 @@
         <v>10</v>
       </c>
       <c r="G79" t="n">
+        <v>6</v>
+      </c>
+      <c r="H79" t="n">
         <v>11</v>
       </c>
-      <c r="H79" t="n">
-        <v>6</v>
-      </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -3637,16 +3637,16 @@
         <v>16</v>
       </c>
       <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="n">
         <v>14</v>
       </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -3677,10 +3677,10 @@
         <v>7</v>
       </c>
       <c r="G81" t="n">
+        <v>4</v>
+      </c>
+      <c r="H81" t="n">
         <v>11</v>
-      </c>
-      <c r="H81" t="n">
-        <v>4</v>
       </c>
       <c r="I81" t="n">
         <v>2</v>
@@ -3723,10 +3723,10 @@
         <v>9</v>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -3757,16 +3757,16 @@
         <v>29</v>
       </c>
       <c r="G83" t="n">
+        <v>13</v>
+      </c>
+      <c r="H83" t="n">
         <v>3</v>
       </c>
-      <c r="H83" t="n">
-        <v>13</v>
-      </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3803,10 +3803,10 @@
         <v>6</v>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -3837,16 +3837,16 @@
         <v>27</v>
       </c>
       <c r="G85" t="n">
+        <v>10</v>
+      </c>
+      <c r="H85" t="n">
         <v>3</v>
       </c>
-      <c r="H85" t="n">
-        <v>10</v>
-      </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3877,16 +3877,16 @@
         <v>21</v>
       </c>
       <c r="G86" t="n">
+        <v>3</v>
+      </c>
+      <c r="H86" t="n">
         <v>6</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>3</v>
       </c>
-      <c r="I86" t="n">
-        <v>4</v>
-      </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -3917,10 +3917,10 @@
         <v>20</v>
       </c>
       <c r="G87" t="n">
+        <v>12</v>
+      </c>
+      <c r="H87" t="n">
         <v>5</v>
-      </c>
-      <c r="H87" t="n">
-        <v>12</v>
       </c>
       <c r="I87" t="n">
         <v>2</v>
@@ -3957,16 +3957,16 @@
         <v>13</v>
       </c>
       <c r="G88" t="n">
+        <v>8</v>
+      </c>
+      <c r="H88" t="n">
         <v>12</v>
       </c>
-      <c r="H88" t="n">
-        <v>8</v>
-      </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3997,10 +3997,10 @@
         <v>26</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
         <v>2</v>
@@ -4037,16 +4037,16 @@
         <v>23</v>
       </c>
       <c r="G90" t="n">
+        <v>3</v>
+      </c>
+      <c r="H90" t="n">
         <v>8</v>
       </c>
-      <c r="H90" t="n">
-        <v>3</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J90" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -4077,16 +4077,16 @@
         <v>8</v>
       </c>
       <c r="G91" t="n">
+        <v>4</v>
+      </c>
+      <c r="H91" t="n">
         <v>16</v>
       </c>
-      <c r="H91" t="n">
-        <v>4</v>
-      </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -4117,10 +4117,10 @@
         <v>45</v>
       </c>
       <c r="G92" t="n">
+        <v>3</v>
+      </c>
+      <c r="H92" t="n">
         <v>7</v>
-      </c>
-      <c r="H92" t="n">
-        <v>3</v>
       </c>
       <c r="I92" t="n">
         <v>2</v>
@@ -4157,10 +4157,10 @@
         <v>4</v>
       </c>
       <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
         <v>13</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>2</v>
@@ -4197,16 +4197,16 @@
         <v>12</v>
       </c>
       <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
         <v>10</v>
       </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J94" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -4237,16 +4237,16 @@
         <v>9</v>
       </c>
       <c r="G95" t="n">
+        <v>4</v>
+      </c>
+      <c r="H95" t="n">
         <v>7</v>
       </c>
-      <c r="H95" t="n">
-        <v>4</v>
-      </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -4277,16 +4277,16 @@
         <v>27</v>
       </c>
       <c r="G96" t="n">
+        <v>6</v>
+      </c>
+      <c r="H96" t="n">
         <v>7</v>
       </c>
-      <c r="H96" t="n">
-        <v>6</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J96" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4317,10 +4317,10 @@
         <v>28</v>
       </c>
       <c r="G97" t="n">
+        <v>4</v>
+      </c>
+      <c r="H97" t="n">
         <v>16</v>
-      </c>
-      <c r="H97" t="n">
-        <v>4</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -4357,16 +4357,16 @@
         <v>23</v>
       </c>
       <c r="G98" t="n">
+        <v>10</v>
+      </c>
+      <c r="H98" t="n">
         <v>25</v>
       </c>
-      <c r="H98" t="n">
-        <v>10</v>
-      </c>
       <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
         <v>3</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -4397,16 +4397,16 @@
         <v>55</v>
       </c>
       <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="n">
         <v>11</v>
       </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
       <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
         <v>5</v>
-      </c>
-      <c r="J99" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -4437,16 +4437,16 @@
         <v>20</v>
       </c>
       <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="n">
         <v>9</v>
       </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J100" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -4477,16 +4477,16 @@
         <v>28</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
@@ -4517,16 +4517,16 @@
         <v>29</v>
       </c>
       <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="n">
         <v>9</v>
       </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J102" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -4557,16 +4557,16 @@
         <v>8</v>
       </c>
       <c r="G103" t="n">
+        <v>9</v>
+      </c>
+      <c r="H103" t="n">
         <v>6</v>
       </c>
-      <c r="H103" t="n">
-        <v>9</v>
-      </c>
       <c r="I103" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
@@ -4597,16 +4597,16 @@
         <v>4</v>
       </c>
       <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="n">
         <v>8</v>
       </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J104" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -4637,16 +4637,16 @@
         <v>32</v>
       </c>
       <c r="G105" t="n">
+        <v>3</v>
+      </c>
+      <c r="H105" t="n">
         <v>7</v>
       </c>
-      <c r="H105" t="n">
-        <v>3</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J105" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4677,10 +4677,10 @@
         <v>29</v>
       </c>
       <c r="G106" t="n">
+        <v>17</v>
+      </c>
+      <c r="H106" t="n">
         <v>5</v>
-      </c>
-      <c r="H106" t="n">
-        <v>17</v>
       </c>
       <c r="I106" t="n">
         <v>2</v>
@@ -4717,16 +4717,16 @@
         <v>30</v>
       </c>
       <c r="G107" t="n">
+        <v>4</v>
+      </c>
+      <c r="H107" t="n">
         <v>3</v>
       </c>
-      <c r="H107" t="n">
-        <v>4</v>
-      </c>
       <c r="I107" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
@@ -4757,16 +4757,16 @@
         <v>9</v>
       </c>
       <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
         <v>12</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J108" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -4797,16 +4797,16 @@
         <v>22</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H109" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -4837,16 +4837,16 @@
         <v>23</v>
       </c>
       <c r="G110" t="n">
+        <v>14</v>
+      </c>
+      <c r="H110" t="n">
         <v>7</v>
       </c>
-      <c r="H110" t="n">
-        <v>14</v>
-      </c>
       <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
         <v>5</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4877,10 +4877,10 @@
         <v>23</v>
       </c>
       <c r="G111" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H111" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
@@ -4917,16 +4917,16 @@
         <v>4</v>
       </c>
       <c r="G112" t="n">
+        <v>10</v>
+      </c>
+      <c r="H112" t="n">
         <v>3</v>
       </c>
-      <c r="H112" t="n">
-        <v>10</v>
-      </c>
       <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
         <v>5</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114">
@@ -4997,16 +4997,16 @@
         <v>19</v>
       </c>
       <c r="G114" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I114" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115">
@@ -5037,16 +5037,16 @@
         <v>2</v>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H115" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -5077,10 +5077,10 @@
         <v>35</v>
       </c>
       <c r="G116" t="n">
+        <v>2</v>
+      </c>
+      <c r="H116" t="n">
         <v>17</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -5117,16 +5117,16 @@
         <v>24</v>
       </c>
       <c r="G117" t="n">
+        <v>9</v>
+      </c>
+      <c r="H117" t="n">
         <v>10</v>
       </c>
-      <c r="H117" t="n">
-        <v>9</v>
-      </c>
       <c r="I117" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118">
@@ -5157,16 +5157,16 @@
         <v>28</v>
       </c>
       <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
         <v>19</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -5197,16 +5197,16 @@
         <v>28</v>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H119" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
+        <v>2</v>
+      </c>
+      <c r="J119" t="n">
         <v>3</v>
-      </c>
-      <c r="J119" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -5237,16 +5237,16 @@
         <v>14</v>
       </c>
       <c r="G120" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I120" t="n">
+        <v>4</v>
+      </c>
+      <c r="J120" t="n">
         <v>3</v>
-      </c>
-      <c r="J120" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="121">
@@ -5277,10 +5277,10 @@
         <v>8</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H121" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>2</v>
@@ -5317,10 +5317,10 @@
         <v>35</v>
       </c>
       <c r="G122" t="n">
+        <v>7</v>
+      </c>
+      <c r="H122" t="n">
         <v>5</v>
-      </c>
-      <c r="H122" t="n">
-        <v>7</v>
       </c>
       <c r="I122" t="n">
         <v>2</v>
@@ -5357,16 +5357,16 @@
         <v>33</v>
       </c>
       <c r="G123" t="n">
+        <v>6</v>
+      </c>
+      <c r="H123" t="n">
         <v>5</v>
       </c>
-      <c r="H123" t="n">
-        <v>6</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J123" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -5397,16 +5397,16 @@
         <v>8</v>
       </c>
       <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="n">
         <v>17</v>
       </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -5437,16 +5437,16 @@
         <v>28</v>
       </c>
       <c r="G125" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H125" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -5477,16 +5477,16 @@
         <v>17</v>
       </c>
       <c r="G126" t="n">
+        <v>2</v>
+      </c>
+      <c r="H126" t="n">
         <v>3</v>
       </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
       <c r="I126" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J126" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -5517,16 +5517,16 @@
         <v>2</v>
       </c>
       <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
         <v>13</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
         <v>5</v>
-      </c>
-      <c r="J127" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -5557,16 +5557,16 @@
         <v>26</v>
       </c>
       <c r="G128" t="n">
+        <v>10</v>
+      </c>
+      <c r="H128" t="n">
         <v>16</v>
       </c>
-      <c r="H128" t="n">
-        <v>10</v>
-      </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -5597,10 +5597,10 @@
         <v>32</v>
       </c>
       <c r="G129" t="n">
+        <v>6</v>
+      </c>
+      <c r="H129" t="n">
         <v>7</v>
-      </c>
-      <c r="H129" t="n">
-        <v>6</v>
       </c>
       <c r="I129" t="n">
         <v>2</v>
@@ -5637,10 +5637,10 @@
         <v>24</v>
       </c>
       <c r="G130" t="n">
+        <v>2</v>
+      </c>
+      <c r="H130" t="n">
         <v>11</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
       </c>
       <c r="I130" t="n">
         <v>2</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
         <v>8</v>
-      </c>
-      <c r="J131" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -5717,10 +5717,10 @@
         <v>43</v>
       </c>
       <c r="G132" t="n">
+        <v>9</v>
+      </c>
+      <c r="H132" t="n">
         <v>11</v>
-      </c>
-      <c r="H132" t="n">
-        <v>9</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -5757,16 +5757,16 @@
         <v>16</v>
       </c>
       <c r="G133" t="n">
+        <v>4</v>
+      </c>
+      <c r="H133" t="n">
         <v>16</v>
       </c>
-      <c r="H133" t="n">
-        <v>4</v>
-      </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J133" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -5803,10 +5803,10 @@
         <v>4</v>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J134" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -5837,16 +5837,16 @@
         <v>25</v>
       </c>
       <c r="G135" t="n">
+        <v>7</v>
+      </c>
+      <c r="H135" t="n">
         <v>5</v>
       </c>
-      <c r="H135" t="n">
-        <v>7</v>
-      </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J135" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -5877,16 +5877,16 @@
         <v>33</v>
       </c>
       <c r="G136" t="n">
+        <v>5</v>
+      </c>
+      <c r="H136" t="n">
         <v>16</v>
       </c>
-      <c r="H136" t="n">
-        <v>5</v>
-      </c>
       <c r="I136" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137">
@@ -5923,10 +5923,10 @@
         <v>6</v>
       </c>
       <c r="I137" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J137" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -5957,10 +5957,10 @@
         <v>15</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H138" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>2</v>
@@ -5997,16 +5997,16 @@
         <v>22</v>
       </c>
       <c r="G139" t="n">
+        <v>5</v>
+      </c>
+      <c r="H139" t="n">
         <v>15</v>
       </c>
-      <c r="H139" t="n">
-        <v>5</v>
-      </c>
       <c r="I139" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
@@ -6037,16 +6037,16 @@
         <v>19</v>
       </c>
       <c r="G140" t="n">
+        <v>8</v>
+      </c>
+      <c r="H140" t="n">
         <v>15</v>
       </c>
-      <c r="H140" t="n">
-        <v>8</v>
-      </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -6083,10 +6083,10 @@
         <v>10</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J141" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -6117,16 +6117,16 @@
         <v>42</v>
       </c>
       <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="n">
         <v>5</v>
       </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -6157,16 +6157,16 @@
         <v>14</v>
       </c>
       <c r="G143" t="n">
+        <v>10</v>
+      </c>
+      <c r="H143" t="n">
         <v>11</v>
       </c>
-      <c r="H143" t="n">
-        <v>10</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -6197,16 +6197,16 @@
         <v>12</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H144" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145">
@@ -6237,16 +6237,16 @@
         <v>21</v>
       </c>
       <c r="G145" t="n">
+        <v>16</v>
+      </c>
+      <c r="H145" t="n">
         <v>18</v>
       </c>
-      <c r="H145" t="n">
-        <v>16</v>
-      </c>
       <c r="I145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -6277,10 +6277,10 @@
         <v>44</v>
       </c>
       <c r="G146" t="n">
+        <v>10</v>
+      </c>
+      <c r="H146" t="n">
         <v>5</v>
-      </c>
-      <c r="H146" t="n">
-        <v>10</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -6317,16 +6317,16 @@
         <v>35</v>
       </c>
       <c r="G147" t="n">
+        <v>5</v>
+      </c>
+      <c r="H147" t="n">
         <v>18</v>
       </c>
-      <c r="H147" t="n">
-        <v>5</v>
-      </c>
       <c r="I147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -6357,16 +6357,16 @@
         <v>52</v>
       </c>
       <c r="G148" t="n">
+        <v>4</v>
+      </c>
+      <c r="H148" t="n">
         <v>6</v>
       </c>
-      <c r="H148" t="n">
-        <v>4</v>
-      </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -6437,16 +6437,16 @@
         <v>12</v>
       </c>
       <c r="G150" t="n">
+        <v>14</v>
+      </c>
+      <c r="H150" t="n">
         <v>5</v>
       </c>
-      <c r="H150" t="n">
-        <v>14</v>
-      </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -6477,16 +6477,16 @@
         <v>31</v>
       </c>
       <c r="G151" t="n">
+        <v>14</v>
+      </c>
+      <c r="H151" t="n">
         <v>8</v>
       </c>
-      <c r="H151" t="n">
-        <v>14</v>
-      </c>
       <c r="I151" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J151" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -6517,16 +6517,16 @@
         <v>8</v>
       </c>
       <c r="G152" t="n">
+        <v>3</v>
+      </c>
+      <c r="H152" t="n">
         <v>5</v>
       </c>
-      <c r="H152" t="n">
-        <v>3</v>
-      </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J152" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -6563,10 +6563,10 @@
         <v>8</v>
       </c>
       <c r="I153" t="n">
+        <v>3</v>
+      </c>
+      <c r="J153" t="n">
         <v>6</v>
-      </c>
-      <c r="J153" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -6597,16 +6597,16 @@
         <v>12</v>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
+        <v>3</v>
+      </c>
+      <c r="J154" t="n">
         <v>5</v>
-      </c>
-      <c r="J154" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -6637,16 +6637,16 @@
         <v>32</v>
       </c>
       <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
         <v>17</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J155" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -6677,16 +6677,16 @@
         <v>31</v>
       </c>
       <c r="G156" t="n">
+        <v>10</v>
+      </c>
+      <c r="H156" t="n">
         <v>19</v>
       </c>
-      <c r="H156" t="n">
-        <v>10</v>
-      </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -6717,16 +6717,16 @@
         <v>16</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H157" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
         <v>5</v>
-      </c>
-      <c r="J157" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -6757,16 +6757,16 @@
         <v>16</v>
       </c>
       <c r="G158" t="n">
+        <v>14</v>
+      </c>
+      <c r="H158" t="n">
         <v>12</v>
       </c>
-      <c r="H158" t="n">
-        <v>14</v>
-      </c>
       <c r="I158" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159">
@@ -6797,16 +6797,16 @@
         <v>5</v>
       </c>
       <c r="G159" t="n">
+        <v>2</v>
+      </c>
+      <c r="H159" t="n">
         <v>19</v>
       </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -6837,16 +6837,16 @@
         <v>21</v>
       </c>
       <c r="G160" t="n">
+        <v>4</v>
+      </c>
+      <c r="H160" t="n">
         <v>16</v>
       </c>
-      <c r="H160" t="n">
-        <v>4</v>
-      </c>
       <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
         <v>3</v>
-      </c>
-      <c r="J160" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -6877,10 +6877,10 @@
         <v>27</v>
       </c>
       <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
         <v>11</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>2</v>
@@ -6917,10 +6917,10 @@
         <v>4</v>
       </c>
       <c r="G162" t="n">
+        <v>11</v>
+      </c>
+      <c r="H162" t="n">
         <v>5</v>
-      </c>
-      <c r="H162" t="n">
-        <v>11</v>
       </c>
       <c r="I162" t="n">
         <v>2</v>
@@ -6957,10 +6957,10 @@
         <v>7</v>
       </c>
       <c r="G163" t="n">
+        <v>7</v>
+      </c>
+      <c r="H163" t="n">
         <v>12</v>
-      </c>
-      <c r="H163" t="n">
-        <v>7</v>
       </c>
       <c r="I163" t="n">
         <v>2</v>
@@ -6997,16 +6997,16 @@
         <v>14</v>
       </c>
       <c r="G164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" t="n">
         <v>24</v>
       </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -7037,16 +7037,16 @@
         <v>17</v>
       </c>
       <c r="G165" t="n">
+        <v>4</v>
+      </c>
+      <c r="H165" t="n">
         <v>7</v>
       </c>
-      <c r="H165" t="n">
-        <v>4</v>
-      </c>
       <c r="I165" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J165" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -7077,16 +7077,16 @@
         <v>55</v>
       </c>
       <c r="G166" t="n">
+        <v>7</v>
+      </c>
+      <c r="H166" t="n">
         <v>3</v>
       </c>
-      <c r="H166" t="n">
-        <v>7</v>
-      </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -7117,16 +7117,16 @@
         <v>41</v>
       </c>
       <c r="G167" t="n">
+        <v>4</v>
+      </c>
+      <c r="H167" t="n">
         <v>5</v>
       </c>
-      <c r="H167" t="n">
-        <v>4</v>
-      </c>
       <c r="I167" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168">
@@ -7157,16 +7157,16 @@
         <v>5</v>
       </c>
       <c r="G168" t="n">
+        <v>12</v>
+      </c>
+      <c r="H168" t="n">
         <v>5</v>
       </c>
-      <c r="H168" t="n">
-        <v>12</v>
-      </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -7203,10 +7203,10 @@
         <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J169" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -7237,10 +7237,10 @@
         <v>23</v>
       </c>
       <c r="G170" t="n">
+        <v>7</v>
+      </c>
+      <c r="H170" t="n">
         <v>3</v>
-      </c>
-      <c r="H170" t="n">
-        <v>7</v>
       </c>
       <c r="I170" t="n">
         <v>2</v>
@@ -7277,10 +7277,10 @@
         <v>54</v>
       </c>
       <c r="G171" t="n">
+        <v>9</v>
+      </c>
+      <c r="H171" t="n">
         <v>5</v>
-      </c>
-      <c r="H171" t="n">
-        <v>9</v>
       </c>
       <c r="I171" t="n">
         <v>3</v>
@@ -7317,16 +7317,16 @@
         <v>17</v>
       </c>
       <c r="G172" t="n">
+        <v>4</v>
+      </c>
+      <c r="H172" t="n">
         <v>21</v>
       </c>
-      <c r="H172" t="n">
-        <v>4</v>
-      </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -7357,16 +7357,16 @@
         <v>23</v>
       </c>
       <c r="G173" t="n">
+        <v>4</v>
+      </c>
+      <c r="H173" t="n">
         <v>3</v>
       </c>
-      <c r="H173" t="n">
-        <v>4</v>
-      </c>
       <c r="I173" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J173" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -7397,16 +7397,16 @@
         <v>30</v>
       </c>
       <c r="G174" t="n">
+        <v>8</v>
+      </c>
+      <c r="H174" t="n">
         <v>12</v>
       </c>
-      <c r="H174" t="n">
-        <v>8</v>
-      </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -7437,10 +7437,10 @@
         <v>47</v>
       </c>
       <c r="G175" t="n">
+        <v>2</v>
+      </c>
+      <c r="H175" t="n">
         <v>7</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
       </c>
       <c r="I175" t="n">
         <v>2</v>
@@ -7517,16 +7517,16 @@
         <v>33</v>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H177" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I177" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178">
@@ -7557,16 +7557,16 @@
         <v>26</v>
       </c>
       <c r="G178" t="n">
+        <v>6</v>
+      </c>
+      <c r="H178" t="n">
         <v>8</v>
       </c>
-      <c r="H178" t="n">
-        <v>6</v>
-      </c>
       <c r="I178" t="n">
+        <v>2</v>
+      </c>
+      <c r="J178" t="n">
         <v>3</v>
-      </c>
-      <c r="J178" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -7597,10 +7597,10 @@
         <v>25</v>
       </c>
       <c r="G179" t="n">
+        <v>9</v>
+      </c>
+      <c r="H179" t="n">
         <v>10</v>
-      </c>
-      <c r="H179" t="n">
-        <v>9</v>
       </c>
       <c r="I179" t="n">
         <v>3</v>
@@ -7643,10 +7643,10 @@
         <v>5</v>
       </c>
       <c r="I180" t="n">
+        <v>2</v>
+      </c>
+      <c r="J180" t="n">
         <v>7</v>
-      </c>
-      <c r="J180" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -7677,16 +7677,16 @@
         <v>19</v>
       </c>
       <c r="G181" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
         <v>7</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -7717,16 +7717,16 @@
         <v>41</v>
       </c>
       <c r="G182" t="n">
+        <v>11</v>
+      </c>
+      <c r="H182" t="n">
         <v>14</v>
       </c>
-      <c r="H182" t="n">
-        <v>11</v>
-      </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -7757,16 +7757,16 @@
         <v>28</v>
       </c>
       <c r="G183" t="n">
+        <v>8</v>
+      </c>
+      <c r="H183" t="n">
         <v>10</v>
       </c>
-      <c r="H183" t="n">
-        <v>8</v>
-      </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J183" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -7797,16 +7797,16 @@
         <v>31</v>
       </c>
       <c r="G184" t="n">
+        <v>14</v>
+      </c>
+      <c r="H184" t="n">
         <v>18</v>
       </c>
-      <c r="H184" t="n">
-        <v>14</v>
-      </c>
       <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
         <v>7</v>
-      </c>
-      <c r="J184" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -7837,16 +7837,16 @@
         <v>32</v>
       </c>
       <c r="G185" t="n">
+        <v>2</v>
+      </c>
+      <c r="H185" t="n">
         <v>11</v>
       </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
       <c r="I185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -7877,16 +7877,16 @@
         <v>28</v>
       </c>
       <c r="G186" t="n">
+        <v>6</v>
+      </c>
+      <c r="H186" t="n">
         <v>13</v>
       </c>
-      <c r="H186" t="n">
-        <v>6</v>
-      </c>
       <c r="I186" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J186" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187">
@@ -7917,16 +7917,16 @@
         <v>19</v>
       </c>
       <c r="G187" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H187" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I187" t="n">
+        <v>4</v>
+      </c>
+      <c r="J187" t="n">
         <v>3</v>
-      </c>
-      <c r="J187" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="188">
@@ -7957,16 +7957,16 @@
         <v>18</v>
       </c>
       <c r="G188" t="n">
+        <v>7</v>
+      </c>
+      <c r="H188" t="n">
         <v>5</v>
       </c>
-      <c r="H188" t="n">
-        <v>7</v>
-      </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -7997,16 +7997,16 @@
         <v>13</v>
       </c>
       <c r="G189" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H189" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
         <v>7</v>
-      </c>
-      <c r="J189" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -8037,16 +8037,16 @@
         <v>38</v>
       </c>
       <c r="G190" t="n">
+        <v>5</v>
+      </c>
+      <c r="H190" t="n">
         <v>12</v>
       </c>
-      <c r="H190" t="n">
+      <c r="I190" t="n">
         <v>5</v>
       </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
       <c r="J190" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -8077,16 +8077,16 @@
         <v>13</v>
       </c>
       <c r="G191" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H191" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
         <v>7</v>
-      </c>
-      <c r="J191" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -8117,16 +8117,16 @@
         <v>46</v>
       </c>
       <c r="G192" t="n">
+        <v>11</v>
+      </c>
+      <c r="H192" t="n">
         <v>12</v>
       </c>
-      <c r="H192" t="n">
-        <v>11</v>
-      </c>
       <c r="I192" t="n">
+        <v>2</v>
+      </c>
+      <c r="J192" t="n">
         <v>5</v>
-      </c>
-      <c r="J192" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -8157,10 +8157,10 @@
         <v>21</v>
       </c>
       <c r="G193" t="n">
+        <v>1</v>
+      </c>
+      <c r="H193" t="n">
         <v>16</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>2</v>
@@ -8197,16 +8197,16 @@
         <v>16</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J194" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195">
@@ -8237,16 +8237,16 @@
         <v>18</v>
       </c>
       <c r="G195" t="n">
+        <v>13</v>
+      </c>
+      <c r="H195" t="n">
         <v>9</v>
       </c>
-      <c r="H195" t="n">
-        <v>13</v>
-      </c>
       <c r="I195" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196">
@@ -8277,16 +8277,16 @@
         <v>25</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J196" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197">
@@ -8317,10 +8317,10 @@
         <v>13</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H197" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -8357,10 +8357,10 @@
         <v>41</v>
       </c>
       <c r="G198" t="n">
+        <v>9</v>
+      </c>
+      <c r="H198" t="n">
         <v>15</v>
-      </c>
-      <c r="H198" t="n">
-        <v>9</v>
       </c>
       <c r="I198" t="n">
         <v>2</v>
@@ -8397,16 +8397,16 @@
         <v>33</v>
       </c>
       <c r="G199" t="n">
+        <v>3</v>
+      </c>
+      <c r="H199" t="n">
         <v>19</v>
       </c>
-      <c r="H199" t="n">
+      <c r="I199" t="n">
         <v>3</v>
       </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
       <c r="J199" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -8443,10 +8443,10 @@
         <v>3</v>
       </c>
       <c r="I200" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J200" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -8477,16 +8477,16 @@
         <v>13</v>
       </c>
       <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
         <v>13</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J201" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202">
@@ -8517,10 +8517,10 @@
         <v>20</v>
       </c>
       <c r="G202" t="n">
+        <v>7</v>
+      </c>
+      <c r="H202" t="n">
         <v>16</v>
-      </c>
-      <c r="H202" t="n">
-        <v>7</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -8557,16 +8557,16 @@
         <v>22</v>
       </c>
       <c r="G203" t="n">
+        <v>3</v>
+      </c>
+      <c r="H203" t="n">
         <v>22</v>
       </c>
-      <c r="H203" t="n">
-        <v>3</v>
-      </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -8597,16 +8597,16 @@
         <v>30</v>
       </c>
       <c r="G204" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H204" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -8637,16 +8637,16 @@
         <v>23</v>
       </c>
       <c r="G205" t="n">
+        <v>6</v>
+      </c>
+      <c r="H205" t="n">
         <v>3</v>
       </c>
-      <c r="H205" t="n">
-        <v>6</v>
-      </c>
       <c r="I205" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J205" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206">
@@ -8683,10 +8683,10 @@
         <v>4</v>
       </c>
       <c r="I206" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J206" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207">
@@ -8717,16 +8717,16 @@
         <v>26</v>
       </c>
       <c r="G207" t="n">
+        <v>6</v>
+      </c>
+      <c r="H207" t="n">
         <v>12</v>
       </c>
-      <c r="H207" t="n">
-        <v>6</v>
-      </c>
       <c r="I207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -8757,16 +8757,16 @@
         <v>9</v>
       </c>
       <c r="G208" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I208" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J208" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209">
@@ -8797,10 +8797,10 @@
         <v>2</v>
       </c>
       <c r="G209" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I209" t="n">
         <v>4</v>
@@ -8837,16 +8837,16 @@
         <v>28</v>
       </c>
       <c r="G210" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H210" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -8883,10 +8883,10 @@
         <v>5</v>
       </c>
       <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
         <v>6</v>
-      </c>
-      <c r="J211" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -8917,10 +8917,10 @@
         <v>26</v>
       </c>
       <c r="G212" t="n">
+        <v>14</v>
+      </c>
+      <c r="H212" t="n">
         <v>8</v>
-      </c>
-      <c r="H212" t="n">
-        <v>14</v>
       </c>
       <c r="I212" t="n">
         <v>2</v>
@@ -8957,16 +8957,16 @@
         <v>27</v>
       </c>
       <c r="G213" t="n">
+        <v>6</v>
+      </c>
+      <c r="H213" t="n">
         <v>18</v>
       </c>
-      <c r="H213" t="n">
-        <v>6</v>
-      </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J213" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -8997,16 +8997,16 @@
         <v>20</v>
       </c>
       <c r="G214" t="n">
+        <v>1</v>
+      </c>
+      <c r="H214" t="n">
         <v>12</v>
       </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
       <c r="I214" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J214" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215">
@@ -9037,16 +9037,16 @@
         <v>28</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H215" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -9083,10 +9083,10 @@
         <v>2</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J216" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -9117,16 +9117,16 @@
         <v>25</v>
       </c>
       <c r="G217" t="n">
+        <v>1</v>
+      </c>
+      <c r="H217" t="n">
         <v>3</v>
       </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J217" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -9157,10 +9157,10 @@
         <v>51</v>
       </c>
       <c r="G218" t="n">
+        <v>3</v>
+      </c>
+      <c r="H218" t="n">
         <v>14</v>
-      </c>
-      <c r="H218" t="n">
-        <v>3</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -9197,10 +9197,10 @@
         <v>40</v>
       </c>
       <c r="G219" t="n">
+        <v>9</v>
+      </c>
+      <c r="H219" t="n">
         <v>14</v>
-      </c>
-      <c r="H219" t="n">
-        <v>9</v>
       </c>
       <c r="I219" t="n">
         <v>2</v>
@@ -9237,10 +9237,10 @@
         <v>41</v>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -9277,16 +9277,16 @@
         <v>31</v>
       </c>
       <c r="G221" t="n">
+        <v>4</v>
+      </c>
+      <c r="H221" t="n">
         <v>14</v>
       </c>
-      <c r="H221" t="n">
-        <v>4</v>
-      </c>
       <c r="I221" t="n">
+        <v>6</v>
+      </c>
+      <c r="J221" t="n">
         <v>3</v>
-      </c>
-      <c r="J221" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="222">
@@ -9317,16 +9317,16 @@
         <v>4</v>
       </c>
       <c r="G222" t="n">
+        <v>3</v>
+      </c>
+      <c r="H222" t="n">
         <v>6</v>
       </c>
-      <c r="H222" t="n">
+      <c r="I222" t="n">
         <v>3</v>
       </c>
-      <c r="I222" t="n">
-        <v>2</v>
-      </c>
       <c r="J222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -9357,16 +9357,16 @@
         <v>51</v>
       </c>
       <c r="G223" t="n">
+        <v>9</v>
+      </c>
+      <c r="H223" t="n">
         <v>11</v>
       </c>
-      <c r="H223" t="n">
-        <v>9</v>
-      </c>
       <c r="I223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -9397,16 +9397,16 @@
         <v>31</v>
       </c>
       <c r="G224" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" t="n">
         <v>11</v>
       </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
       <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
         <v>3</v>
-      </c>
-      <c r="J224" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -9437,16 +9437,16 @@
         <v>31</v>
       </c>
       <c r="G225" t="n">
+        <v>7</v>
+      </c>
+      <c r="H225" t="n">
         <v>20</v>
       </c>
-      <c r="H225" t="n">
-        <v>7</v>
-      </c>
       <c r="I225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -9477,16 +9477,16 @@
         <v>29</v>
       </c>
       <c r="G226" t="n">
+        <v>2</v>
+      </c>
+      <c r="H226" t="n">
         <v>11</v>
       </c>
-      <c r="H226" t="n">
-        <v>2</v>
-      </c>
       <c r="I226" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J226" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -9517,16 +9517,16 @@
         <v>55</v>
       </c>
       <c r="G227" t="n">
+        <v>5</v>
+      </c>
+      <c r="H227" t="n">
         <v>8</v>
       </c>
-      <c r="H227" t="n">
-        <v>5</v>
-      </c>
       <c r="I227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
@@ -9557,16 +9557,16 @@
         <v>40</v>
       </c>
       <c r="G228" t="n">
+        <v>1</v>
+      </c>
+      <c r="H228" t="n">
         <v>15</v>
       </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
       <c r="I228" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J228" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -9597,16 +9597,16 @@
         <v>4</v>
       </c>
       <c r="G229" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I229" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J229" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -9637,16 +9637,16 @@
         <v>8</v>
       </c>
       <c r="G230" t="n">
+        <v>9</v>
+      </c>
+      <c r="H230" t="n">
         <v>7</v>
       </c>
-      <c r="H230" t="n">
-        <v>9</v>
-      </c>
       <c r="I230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/uniqorn-frontend/public/data/CurrentSeason_UniqornGames_Master.xlsx
+++ b/uniqorn-frontend/public/data/CurrentSeason_UniqornGames_Master.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J230"/>
+  <dimension ref="A1:J252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,7 +580,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jokić</t>
+          <t>Jokic</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nurkić</t>
+          <t>Nurkic</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1375,38 +1375,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cade</t>
+          <t>Donovan</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cunningham</t>
+          <t>Clingan</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Pistons</t>
+          <t>Trail Blazers</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Nets</t>
+          <t>Cavaliers</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G24" t="n">
+        <v>5</v>
+      </c>
+      <c r="H24" t="n">
         <v>12</v>
       </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1415,38 +1415,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Donovan</t>
+          <t>Shai</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Clingan</t>
+          <t>Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Trail Blazers</t>
+          <t>Thunder</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cavaliers</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="G25" t="n">
+        <v>13</v>
+      </c>
+      <c r="H25" t="n">
         <v>5</v>
       </c>
-      <c r="H25" t="n">
-        <v>12</v>
-      </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Craig</t>
+          <t>Jarrett</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Porter Jr.</t>
+          <t>Allen</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1474,19 +1474,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G26" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Jarrett</t>
+          <t>Craig</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Allen</t>
+          <t>Porter Jr.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1514,19 +1514,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
+        <v>12</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
         <v>5</v>
-      </c>
-      <c r="H27" t="n">
-        <v>17</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1535,38 +1535,38 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Shai</t>
+          <t>Cade</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Gilgeous-Alexander</t>
+          <t>Cunningham</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Thunder</t>
+          <t>Pistons</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Nuggets</t>
+          <t>Nets</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1575,38 +1575,38 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Yves</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Missi</t>
+          <t>Gobert</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Pelicans</t>
+          <t>Timberwolves</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>76ers</t>
+          <t>Grizzlies</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1615,38 +1615,38 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Yves</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Gobert</t>
+          <t>Missi</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Timberwolves</t>
+          <t>Pelicans</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Grizzlies</t>
+          <t>76ers</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1655,38 +1655,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Derrick</t>
+          <t>Ausar</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Celtics</t>
+          <t>Pistons</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Kings</t>
+          <t>Warriors</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>7</v>
       </c>
       <c r="G31" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1735,38 +1735,38 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ausar</t>
+          <t>Derrick</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>White</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Pistons</t>
+          <t>Celtics</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Warriors</t>
+          <t>Kings</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>7</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1815,38 +1815,38 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Dyson</t>
+          <t>Draymond</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Daniels</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Hawks</t>
+          <t>Warriors</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Celtics</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1855,38 +1855,38 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Draymond</t>
+          <t>Collin</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Murray-Boyles</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Warriors</t>
+          <t>Raptors</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Jazz</t>
+          <t>Knicks</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1895,38 +1895,38 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Collin</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Murray-Boyles</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Raptors</t>
+          <t>Magic</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Knicks</t>
+          <t>Heat</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1935,38 +1935,38 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Dyson</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Daniels</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Magic</t>
+          <t>Hawks</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Heat</t>
+          <t>Celtics</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G38" t="n">
+        <v>9</v>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
         <v>5</v>
-      </c>
-      <c r="H38" t="n">
-        <v>7</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2</v>
-      </c>
-      <c r="J38" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -2815,38 +2815,38 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Jamal</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Edwards</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Nuggets</t>
+          <t>Timberwolves</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Wizards</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2855,38 +2855,38 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Jamal</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Edwards</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Timberwolves</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Wizards</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G61" t="n">
+        <v>6</v>
+      </c>
+      <c r="H61" t="n">
         <v>3</v>
       </c>
-      <c r="H61" t="n">
-        <v>4</v>
-      </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -2895,38 +2895,38 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tyrese</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Maxey</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>76ers</t>
+          <t>Clippers</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Cavaliers</t>
+          <t>Raptors</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G62" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -2935,38 +2935,38 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Tyrese</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Maxey</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Clippers</t>
+          <t>76ers</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Raptors</t>
+          <t>Cavaliers</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G63" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -3135,38 +3135,38 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Shai</t>
+          <t>Mouhamed</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Gilgeous-Alexander</t>
+          <t>Gueye</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Thunder</t>
+          <t>Hawks</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Lakers</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
         <v>5</v>
-      </c>
-      <c r="H68" t="n">
-        <v>5</v>
-      </c>
-      <c r="I68" t="n">
-        <v>4</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3215,72 +3215,72 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Mouhamed</t>
+          <t>Shai</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Gueye</t>
+          <t>Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Hawks</t>
+          <t>Thunder</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Lakers</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="F70" t="n">
+        <v>34</v>
+      </c>
+      <c r="G70" t="n">
         <v>5</v>
       </c>
-      <c r="G70" t="n">
-        <v>1</v>
-      </c>
       <c r="H70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J70" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Goga</t>
+          <t>Jusuf</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Bitadze</t>
+          <t>Nurkic</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Magic</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Pelicans</t>
+          <t>Cavaliers</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
@@ -3295,35 +3295,35 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Collin</t>
+          <t>Goga</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Murray-Boyles</t>
+          <t>Bitadze</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Raptors</t>
+          <t>Magic</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>76ers</t>
+          <t>Pelicans</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
         <v>3</v>
@@ -3331,42 +3331,42 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Kris</t>
+          <t>Collin</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Dunn</t>
+          <t>Murray-Boyles</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Clippers</t>
+          <t>Raptors</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Pistons</t>
+          <t>76ers</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G73" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -3375,12 +3375,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Kawhi</t>
+          <t>Kris</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Leonard</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3394,13 +3394,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H74" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -3411,42 +3411,42 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46031</v>
+        <v>46032</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Stephen</t>
+          <t>Kawhi</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Curry</t>
+          <t>Leonard</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Warriors</t>
+          <t>Clippers</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Kings</t>
+          <t>Pistons</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G75" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -3455,38 +3455,38 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Derik</t>
+          <t>Dyson</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Queen</t>
+          <t>Daniels</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Pelicans</t>
+          <t>Hawks</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Wizards</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G76" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H76" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -3495,75 +3495,75 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Dyson</t>
+          <t>Derik</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Daniels</t>
+          <t>Queen</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Hawks</t>
+          <t>Pelicans</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Nuggets</t>
+          <t>Wizards</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G77" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H77" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46029</v>
+        <v>46031</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Daniss</t>
+          <t>Stephen</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Jenkins</t>
+          <t>Curry</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Pistons</t>
+          <t>Warriors</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Bulls</t>
+          <t>Kings</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G78" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H78" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -3575,38 +3575,38 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mouhamed</t>
+          <t>Daniss</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Gueye</t>
+          <t>Jenkins</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Hawks</t>
+          <t>Pistons</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Pelicans</t>
+          <t>Bulls</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
+        <v>15</v>
+      </c>
+      <c r="H79" t="n">
         <v>6</v>
       </c>
-      <c r="H79" t="n">
-        <v>11</v>
-      </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3615,38 +3615,38 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Mouhamed</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Wembanyama</t>
+          <t>Gueye</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Hawks</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Lakers</t>
+          <t>Pelicans</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H80" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -3655,35 +3655,35 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Wembanyama</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Rockets</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Trail Blazers</t>
+          <t>Lakers</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J81" t="n">
         <v>2</v>
@@ -3691,39 +3691,39 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46028</v>
+        <v>46029</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Craig</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Porter Jr.</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Cavaliers</t>
+          <t>Rockets</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Pacers</t>
+          <t>Trail Blazers</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G82" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H82" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
         <v>2</v>
@@ -3731,119 +3731,119 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46027</v>
+        <v>46028</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cade</t>
+          <t>Craig</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cunningham</t>
+          <t>Porter Jr.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Pistons</t>
+          <t>Cavaliers</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Knicks</t>
+          <t>Pacers</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G83" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H83" t="n">
+        <v>9</v>
+      </c>
+      <c r="I83" t="n">
         <v>3</v>
       </c>
-      <c r="I83" t="n">
-        <v>2</v>
-      </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46027</v>
+        <v>46028</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tyrese</t>
+          <t>Luka</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Maxey</t>
+          <t>Doncic</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>76ers</t>
+          <t>Lakers</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Nuggets</t>
+          <t>Pelicans</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G84" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H84" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46026</v>
+        <v>46027</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Cade</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Cunningham</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Magic</t>
+          <t>Pistons</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Pacers</t>
+          <t>Knicks</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G85" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H85" t="n">
         <v>3</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -3851,39 +3851,39 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46026</v>
+        <v>46027</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Tyrese</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Westbrook</t>
+          <t>Maxey</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Kings</t>
+          <t>76ers</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Bucks</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H86" t="n">
         <v>6</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
         <v>4</v>
@@ -3891,82 +3891,82 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46025</v>
+        <v>46026</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Dyson</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Daniels</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Hawks</t>
+          <t>Magic</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Raptors</t>
+          <t>Pacers</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G87" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46025</v>
+        <v>46026</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sandro</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Mamukelashvili</t>
+          <t>Westbrook</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Raptors</t>
+          <t>Kings</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Hawks</t>
+          <t>Bucks</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G88" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I88" t="n">
         <v>3</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -3975,32 +3975,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>VJ</t>
+          <t>Dyson</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Edgecombe</t>
+          <t>Daniels</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>76ers</t>
+          <t>Hawks</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Knicks</t>
+          <t>Raptors</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G89" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I89" t="n">
         <v>2</v>
@@ -4015,195 +4015,195 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Luke</t>
+          <t>Sandro</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Kornet</t>
+          <t>Mamukelashvili</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Raptors</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Trail Blazers</t>
+          <t>Hawks</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G90" t="n">
+        <v>8</v>
+      </c>
+      <c r="H90" t="n">
+        <v>12</v>
+      </c>
+      <c r="I90" t="n">
         <v>3</v>
       </c>
-      <c r="H90" t="n">
-        <v>8</v>
-      </c>
-      <c r="I90" t="n">
-        <v>5</v>
-      </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ariel</t>
+          <t>VJ</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Hukporti</t>
+          <t>Edgecombe</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>76ers</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
           <t>Knicks</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Hawks</t>
-        </is>
-      </c>
       <c r="F91" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G91" t="n">
         <v>4</v>
       </c>
       <c r="H91" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46023</v>
+        <v>46025</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Kawhi</t>
+          <t>Luke</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Leonard</t>
+          <t>Kornet</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Clippers</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Jazz</t>
+          <t>Trail Blazers</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
       </c>
       <c r="H92" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Kel'el</t>
+          <t>Ariel</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Ware</t>
+          <t>Hukporti</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Heat</t>
+          <t>Knicks</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Pistons</t>
+          <t>Hawks</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H93" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46022</v>
+        <v>46023</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Chet</t>
+          <t>Kawhi</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Holmgren</t>
+          <t>Leonard</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Thunder</t>
+          <t>Clippers</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Trail Blazers</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H94" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I94" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
         <v>2</v>
@@ -4211,39 +4211,39 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46022</v>
+        <v>46023</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Derik</t>
+          <t>Kel'el</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Queen</t>
+          <t>Ware</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Pelicans</t>
+          <t>Heat</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Bulls</t>
+          <t>Pistons</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
         <v>2</v>
@@ -4251,162 +4251,162 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46021</v>
+        <v>46022</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Derrick</t>
+          <t>Derik</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Queen</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Celtics</t>
+          <t>Pelicans</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Jazz</t>
+          <t>Bulls</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G96" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H96" t="n">
         <v>7</v>
       </c>
       <c r="I96" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46021</v>
+        <v>46022</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cedric</t>
+          <t>Chet</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Coward</t>
+          <t>Holmgren</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Grizzlies</t>
+          <t>Thunder</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>76ers</t>
+          <t>Trail Blazers</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>46019</v>
+        <v>46021</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Scottie</t>
+          <t>Derrick</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Barnes</t>
+          <t>White</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Raptors</t>
+          <t>Celtics</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Warriors</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G98" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H98" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>46019</v>
+        <v>46021</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Kawhi</t>
+          <t>Cedric</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Leonard</t>
+          <t>Coward</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Clippers</t>
+          <t>Grizzlies</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Pistons</t>
+          <t>76ers</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H99" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -4415,38 +4415,38 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Kawhi</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Sarr</t>
+          <t>Leonard</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Wizards</t>
+          <t>Clippers</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Grizzlies</t>
+          <t>Pistons</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I100" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -4455,38 +4455,38 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Tyrese</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Maxey</t>
+          <t>Sarr</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>76ers</t>
+          <t>Wizards</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Thunder</t>
+          <t>Grizzlies</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G101" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -4495,118 +4495,118 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Chet</t>
+          <t>Tyrese</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Holmgren</t>
+          <t>Maxey</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
+          <t>76ers</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
           <t>Thunder</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>76ers</t>
-        </is>
-      </c>
       <c r="F102" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H102" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>46018</v>
+        <v>46019</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Chet</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Porter Jr.</t>
+          <t>Holmgren</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Bucks</t>
+          <t>Thunder</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Bulls</t>
+          <t>76ers</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="n">
         <v>9</v>
       </c>
-      <c r="H103" t="n">
-        <v>6</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J103" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>46018</v>
+        <v>46019</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Yves</t>
+          <t>Scottie</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Missi</t>
+          <t>Barnes</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Pelicans</t>
+          <t>Raptors</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Suns</t>
+          <t>Warriors</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H104" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -4615,75 +4615,75 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Nikola</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Wembanyama</t>
+          <t>Jokic</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Jazz</t>
+          <t>Magic</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H105" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I105" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>46017</v>
+        <v>46018</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Cade</t>
+          <t>Yves</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Cunningham</t>
+          <t>Missi</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Pistons</t>
+          <t>Pelicans</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Jazz</t>
+          <t>Suns</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G106" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J106" t="n">
         <v>2</v>
@@ -4691,36 +4691,36 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>46017</v>
+        <v>46018</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Jaylen</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Porter Jr.</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Celtics</t>
+          <t>Bucks</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Pacers</t>
+          <t>Bulls</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G107" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -4731,39 +4731,39 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>46016</v>
+        <v>46018</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Gobert</t>
+          <t>Wembanyama</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Timberwolves</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Nuggets</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H108" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I108" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -4771,39 +4771,39 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>46014</v>
+        <v>46017</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Trae</t>
+          <t>Cade</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Cunningham</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Hawks</t>
+          <t>Pistons</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Bulls</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G109" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="n">
         <v>2</v>
@@ -4811,122 +4811,122 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>46014</v>
+        <v>46017</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cade</t>
+          <t>Jaylen</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Cunningham</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Pistons</t>
+          <t>Celtics</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Kings</t>
+          <t>Pacers</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G110" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H110" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>46014</v>
+        <v>46016</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Desmond</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Bane</t>
+          <t>Gobert</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Magic</t>
+          <t>Timberwolves</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Trail Blazers</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G111" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>46014</v>
+        <v>46016</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Dylan</t>
+          <t>Nikola</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Harper</t>
+          <t>Jokic</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Thunder</t>
+          <t>Timberwolves</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="G112" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4975,155 +4975,155 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Cade</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Cunningham</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>76ers</t>
+          <t>Pistons</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Nets</t>
+          <t>Kings</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H114" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>46013</v>
+        <v>46014</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Isaiah</t>
+          <t>Desmond</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Collier</t>
+          <t>Bane</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Jazz</t>
+          <t>Magic</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Nuggets</t>
+          <t>Trail Blazers</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G115" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>46013</v>
+        <v>46014</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Dylan</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Harper</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Mavericks</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Pelicans</t>
+          <t>Thunder</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H116" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>46012</v>
+        <v>46014</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Nikola</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Porter Jr.</t>
+          <t>Jokic</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Bucks</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Timberwolves</t>
+          <t>Mavericks</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G117" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H117" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
         <v>4</v>
@@ -5131,159 +5131,159 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>46012</v>
+        <v>46014</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Kel'el</t>
+          <t>Trae</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Ware</t>
+          <t>Young</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Heat</t>
+          <t>Hawks</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Knicks</t>
+          <t>Bulls</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H118" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>46011</v>
+        <v>46014</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Reed</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Sheppard</t>
+          <t>George</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Rockets</t>
+          <t>76ers</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Nuggets</t>
+          <t>Nets</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G119" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I119" t="n">
         <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>46011</v>
+        <v>46013</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Ausar</t>
+          <t>Isaiah</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Collier</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Pistons</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Hornets</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H120" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>46011</v>
+        <v>46013</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>LaMelo</t>
+          <t>Nikola</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Jokic</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Hornets</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Pistons</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G121" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J121" t="n">
         <v>2</v>
@@ -5291,156 +5291,156 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>46010</v>
+        <v>46013</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Shai</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Gilgeous-Alexander</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Thunder</t>
+          <t>Mavericks</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Timberwolves</t>
+          <t>Pelicans</t>
         </is>
       </c>
       <c r="F122" t="n">
         <v>35</v>
       </c>
       <c r="G122" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H122" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>46010</v>
+        <v>46013</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Derrick</t>
+          <t>Moussa</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Diabate</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Celtics</t>
+          <t>Hornets</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Heat</t>
+          <t>Cavaliers</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G123" t="n">
+        <v>2</v>
+      </c>
+      <c r="H123" t="n">
+        <v>14</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
         <v>6</v>
-      </c>
-      <c r="H123" t="n">
-        <v>5</v>
-      </c>
-      <c r="I123" t="n">
-        <v>4</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>46009</v>
+        <v>46012</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Bam</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Adebayo</t>
+          <t>Porter Jr.</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Heat</t>
+          <t>Bucks</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Nets</t>
+          <t>Timberwolves</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H124" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>46009</v>
+        <v>46012</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>LaMelo</t>
+          <t>Kel'el</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Ware</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Hornets</t>
+          <t>Heat</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Hawks</t>
+          <t>Knicks</t>
         </is>
       </c>
       <c r="F125" t="n">
         <v>28</v>
       </c>
       <c r="G125" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -5451,196 +5451,196 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>46009</v>
+        <v>46011</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Keegan</t>
+          <t>Reed</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Sheppard</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Kings</t>
+          <t>Rockets</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Trail Blazers</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H126" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" t="n">
+        <v>2</v>
+      </c>
+      <c r="J126" t="n">
         <v>3</v>
-      </c>
-      <c r="I126" t="n">
-        <v>4</v>
-      </c>
-      <c r="J126" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>46009</v>
+        <v>46011</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Oso</t>
+          <t>LaMelo</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Ighodaro</t>
+          <t>Ball</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Suns</t>
+          <t>Hornets</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Warriors</t>
+          <t>Pistons</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H127" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>46009</v>
+        <v>46011</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Paolo</t>
+          <t>Ausar</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Banchero</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Magic</t>
+          <t>Pistons</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Nuggets</t>
+          <t>Hornets</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G128" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H128" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>46009</v>
+        <v>46010</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Shai</t>
+          <t>Derrick</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Gilgeous-Alexander</t>
+          <t>White</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Thunder</t>
+          <t>Celtics</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Clippers</t>
+          <t>Heat</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G129" t="n">
         <v>6</v>
       </c>
       <c r="H129" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>46009</v>
+        <v>46010</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Scottie</t>
+          <t>Shai</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Barnes</t>
+          <t>Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Raptors</t>
+          <t>Thunder</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Bucks</t>
+          <t>Timberwolves</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H130" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I130" t="n">
         <v>2</v>
@@ -5655,38 +5655,38 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Herbert</t>
+          <t>Shai</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Pelicans</t>
+          <t>Thunder</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Rockets</t>
+          <t>Clippers</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G131" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -5695,635 +5695,635 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Jalen</t>
+          <t>Scottie</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Barnes</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Hawks</t>
+          <t>Raptors</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Hornets</t>
+          <t>Bucks</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G132" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H132" t="n">
         <v>11</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Keegan</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Gobert</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Timberwolves</t>
+          <t>Kings</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Grizzlies</t>
+          <t>Trail Blazers</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G133" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H133" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I133" t="n">
         <v>4</v>
       </c>
       <c r="J133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>46006</v>
+        <v>46009</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Jaren</t>
+          <t>Oso</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Jackson Jr.</t>
+          <t>Ighodaro</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Grizzlies</t>
+          <t>Suns</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Clippers</t>
+          <t>Warriors</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G134" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
         <v>5</v>
-      </c>
-      <c r="J134" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>46006</v>
+        <v>46009</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Luka</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Durant</t>
+          <t>Doncic</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Rockets</t>
+          <t>Lakers</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Nuggets</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G135" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H135" t="n">
+        <v>11</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
         <v>5</v>
-      </c>
-      <c r="I135" t="n">
-        <v>5</v>
-      </c>
-      <c r="J135" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>46006</v>
+        <v>46009</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Lauri</t>
+          <t>LaMelo</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Markkanen</t>
+          <t>Ball</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Jazz</t>
+          <t>Hornets</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Mavericks</t>
+          <t>Hawks</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G136" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H136" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>46005</v>
+        <v>46009</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Donte</t>
+          <t>Jalen</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>DiVincenzo</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Timberwolves</t>
+          <t>Hawks</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Kings</t>
+          <t>Hornets</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G137" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H137" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>46003</v>
+        <v>46009</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Cade</t>
+          <t>Bam</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Cunningham</t>
+          <t>Adebayo</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Pistons</t>
+          <t>Heat</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Hawks</t>
+          <t>Nets</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G138" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>46002</v>
+        <v>46009</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Alperen</t>
+          <t>Paolo</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Sengun</t>
+          <t>Banchero</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Rockets</t>
+          <t>Magic</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Clippers</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G139" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H139" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>46001</v>
+        <v>46009</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>LeBron</t>
+          <t>Herbert</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Lakers</t>
+          <t>Pelicans</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Rockets</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G140" t="n">
+        <v>3</v>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
         <v>8</v>
-      </c>
-      <c r="H140" t="n">
-        <v>15</v>
-      </c>
-      <c r="I140" t="n">
-        <v>3</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45999</v>
+        <v>46008</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Derik</t>
+          <t>Rudy</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Queen</t>
+          <t>Gobert</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Pelicans</t>
+          <t>Timberwolves</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Grizzlies</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G141" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H141" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I141" t="n">
         <v>4</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45997</v>
+        <v>46006</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Lauri</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>LaVine</t>
+          <t>Markkanen</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Kings</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Heat</t>
+          <t>Mavericks</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H142" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45997</v>
+        <v>46006</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Nic</t>
+          <t>Jaren</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Claxton</t>
+          <t>Jackson Jr.</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Nets</t>
+          <t>Grizzlies</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Pelicans</t>
+          <t>Clippers</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G143" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H143" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45997</v>
+        <v>46006</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Westbrook</t>
+          <t>Durant</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Kings</t>
+          <t>Rockets</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Heat</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G144" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J144" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45996</v>
+        <v>46005</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Jalen</t>
+          <t>Donte</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>DiVincenzo</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Hawks</t>
+          <t>Timberwolves</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Nuggets</t>
+          <t>Kings</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G145" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H145" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J145" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45995</v>
+        <v>46003</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Jusuf</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Reaves</t>
+          <t>Nurkic</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Lakers</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Raptors</t>
+          <t>Grizzlies</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="G146" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H146" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45994</v>
+        <v>46003</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Karl-Anthony</t>
+          <t>Cade</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Towns</t>
+          <t>Cunningham</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Knicks</t>
+          <t>Pistons</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Hornets</t>
+          <t>Hawks</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G147" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H147" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="n">
         <v>2</v>
@@ -6331,119 +6331,119 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45994</v>
+        <v>46002</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Jamal</t>
+          <t>Alperen</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Sengun</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Nuggets</t>
+          <t>Rockets</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Pacers</t>
+          <t>Clippers</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="G148" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H148" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45993</v>
+        <v>46001</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>VJ</t>
+          <t>LeBron</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Edgecombe</t>
+          <t>James</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>76ers</t>
+          <t>Lakers</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Wizards</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G149" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H149" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45992</v>
+        <v>45999</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>LaMelo</t>
+          <t>Derik</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Queen</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Hornets</t>
+          <t>Pelicans</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Nets</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G150" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H150" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I150" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
@@ -6451,79 +6451,79 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45992</v>
+        <v>45998</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Alperen</t>
+          <t>Luka</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Sengun</t>
+          <t>Doncic</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Rockets</t>
+          <t>Lakers</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Jazz</t>
+          <t>76ers</t>
         </is>
       </c>
       <c r="F151" t="n">
         <v>31</v>
       </c>
       <c r="G151" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H151" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I151" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45992</v>
+        <v>45997</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Goga</t>
+          <t>Zach</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Bitadze</t>
+          <t>LaVine</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Magic</t>
+          <t>Kings</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Bulls</t>
+          <t>Heat</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="G152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>5</v>
       </c>
       <c r="I152" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J152" t="n">
         <v>1</v>
@@ -6531,359 +6531,359 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45992</v>
+        <v>45997</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Cade</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Cunningham</t>
+          <t>Westbrook</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Pistons</t>
+          <t>Kings</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Hawks</t>
+          <t>Heat</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G153" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H153" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45991</v>
+        <v>45997</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Keegan</t>
+          <t>Nic</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Claxton</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Kings</t>
+          <t>Nets</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Grizzlies</t>
+          <t>Pelicans</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I154" t="n">
         <v>3</v>
       </c>
       <c r="J154" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45991</v>
+        <v>45996</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Kristaps</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Edey</t>
+          <t>Porzingis</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Grizzlies</t>
+          <t>Hawks</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Kings</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45991</v>
+        <v>45996</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Deni</t>
+          <t>Jalen</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Avdija</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Trail Blazers</t>
+          <t>Hawks</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Thunder</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G156" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H156" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45989</v>
+        <v>45995</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Tre</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Reaves</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Bulls</t>
+          <t>Lakers</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Hornets</t>
+          <t>Raptors</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="G157" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45989</v>
+        <v>45994</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Jamal</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Westbrook</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Kings</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Jazz</t>
+          <t>Pacers</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G158" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H158" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45989</v>
+        <v>45994</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Karl-Anthony</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Edey</t>
+          <t>Towns</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Grizzlies</t>
+          <t>Knicks</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Clippers</t>
+          <t>Hornets</t>
         </is>
       </c>
       <c r="F159" t="n">
+        <v>35</v>
+      </c>
+      <c r="G159" t="n">
         <v>5</v>
       </c>
-      <c r="G159" t="n">
-        <v>2</v>
-      </c>
       <c r="H159" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45987</v>
+        <v>45993</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>VJ</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Edgecombe</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Suns</t>
+          <t>76ers</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Kings</t>
+          <t>Wizards</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G160" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H160" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45986</v>
+        <v>45992</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Alperen</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Sarr</t>
+          <t>Sengun</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Wizards</t>
+          <t>Rockets</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Hawks</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H161" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I161" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J161" t="n">
         <v>2</v>
@@ -6891,116 +6891,116 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45986</v>
+        <v>45992</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Jalen</t>
+          <t>Nikola</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Suggs</t>
+          <t>Jokic</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Magic</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>76ers</t>
+          <t>Mavericks</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G162" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H162" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I162" t="n">
         <v>2</v>
       </c>
       <c r="J162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45985</v>
+        <v>45992</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Goga</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Hart</t>
+          <t>Bitadze</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Knicks</t>
+          <t>Magic</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Nets</t>
+          <t>Bulls</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G163" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H163" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I163" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45984</v>
+        <v>45992</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Andre</t>
+          <t>LaMelo</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Drummond</t>
+          <t>Ball</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>76ers</t>
+          <t>Hornets</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Heat</t>
+          <t>Nets</t>
         </is>
       </c>
       <c r="F164" t="n">
+        <v>12</v>
+      </c>
+      <c r="G164" t="n">
         <v>14</v>
       </c>
-      <c r="G164" t="n">
-        <v>1</v>
-      </c>
       <c r="H164" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I164" t="n">
         <v>2</v>
@@ -7011,76 +7011,76 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45984</v>
+        <v>45992</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Scottie</t>
+          <t>Cade</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Barnes</t>
+          <t>Cunningham</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Raptors</t>
+          <t>Pistons</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Nets</t>
+          <t>Hawks</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G165" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H165" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I165" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J165" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45983</v>
+        <v>45991</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Deni</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Harden</t>
+          <t>Avdija</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Clippers</t>
+          <t>Trail Blazers</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Hornets</t>
+          <t>Thunder</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G166" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -7091,119 +7091,119 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45982</v>
+        <v>45991</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Zach</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Edwards</t>
+          <t>Edey</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Timberwolves</t>
+          <t>Grizzlies</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Suns</t>
+          <t>Kings</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G167" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
+        <v>17</v>
+      </c>
+      <c r="I167" t="n">
         <v>5</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
       <c r="J167" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45982</v>
+        <v>45991</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Brandon</t>
+          <t>Keegan</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Mavericks</t>
+          <t>Kings</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Pelicans</t>
+          <t>Grizzlies</t>
         </is>
       </c>
       <c r="F168" t="n">
+        <v>12</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+      <c r="I168" t="n">
+        <v>3</v>
+      </c>
+      <c r="J168" t="n">
         <v>5</v>
-      </c>
-      <c r="G168" t="n">
-        <v>12</v>
-      </c>
-      <c r="H168" t="n">
-        <v>5</v>
-      </c>
-      <c r="I168" t="n">
-        <v>2</v>
-      </c>
-      <c r="J168" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Jalen</t>
+          <t>Zach</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Edey</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Bulls</t>
+          <t>Grizzlies</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Heat</t>
+          <t>Clippers</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I169" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -7211,236 +7211,236 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45981</v>
+        <v>45989</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Jalen</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Suggs</t>
+          <t>Westbrook</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Magic</t>
+          <t>Kings</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Clippers</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G170" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45981</v>
+        <v>45989</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Tyrese</t>
+          <t>Tre</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Maxey</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>76ers</t>
+          <t>Bulls</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Bucks</t>
+          <t>Hornets</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G171" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
         <v>5</v>
-      </c>
-      <c r="I171" t="n">
-        <v>3</v>
-      </c>
-      <c r="J171" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Donovan</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Clingan</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Trail Blazers</t>
+          <t>Suns</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Bulls</t>
+          <t>Kings</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G172" t="n">
         <v>4</v>
       </c>
       <c r="H172" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J172" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45978</v>
+        <v>45986</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Mikal</t>
+          <t>Luka</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Bridges</t>
+          <t>Doncic</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Knicks</t>
+          <t>Lakers</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Heat</t>
+          <t>Clippers</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G173" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I173" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45977</v>
+        <v>45986</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Alperen</t>
+          <t>Jalen</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Sengun</t>
+          <t>Suggs</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Rockets</t>
+          <t>Magic</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Magic</t>
+          <t>76ers</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G174" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H174" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I174" t="n">
         <v>2</v>
       </c>
       <c r="J174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45977</v>
+        <v>45986</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Lauri</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Markkanen</t>
+          <t>Sarr</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Jazz</t>
+          <t>Wizards</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Bulls</t>
+          <t>Hawks</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I175" t="n">
         <v>2</v>
@@ -7451,7 +7451,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45977</v>
+        <v>45985</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -7460,27 +7460,27 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Giddey</t>
+          <t>Hart</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Bulls</t>
+          <t>Knicks</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Jazz</t>
+          <t>Nets</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G176" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H176" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I176" t="n">
         <v>2</v>
@@ -7491,287 +7491,287 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45977</v>
+        <v>45984</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Keyonte</t>
+          <t>Scottie</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Barnes</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Jazz</t>
+          <t>Raptors</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Bulls</t>
+          <t>Nets</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G177" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J177" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45976</v>
+        <v>45984</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Edwards</t>
+          <t>Drummond</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Timberwolves</t>
+          <t>76ers</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Nuggets</t>
+          <t>Heat</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G178" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I178" t="n">
         <v>2</v>
       </c>
       <c r="J178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45975</v>
+        <v>45983</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Alperen</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Sengun</t>
+          <t>Harden</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Rockets</t>
+          <t>Clippers</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Trail Blazers</t>
+          <t>Hornets</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G179" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H179" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45975</v>
+        <v>45982</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Mikal</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Bridges</t>
+          <t>Edwards</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Knicks</t>
+          <t>Timberwolves</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Heat</t>
+          <t>Suns</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G180" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H180" t="n">
         <v>5</v>
       </c>
       <c r="I180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45975</v>
+        <v>45982</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Fears</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
+          <t>Mavericks</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
           <t>Pelicans</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>Lakers</t>
-        </is>
-      </c>
       <c r="F181" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G181" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H181" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J181" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45975</v>
+        <v>45982</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Jalen</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Harden</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Clippers</t>
+          <t>Bulls</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Mavericks</t>
+          <t>Heat</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G182" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H182" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Scottie</t>
+          <t>Tyrese</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Barnes</t>
+          <t>Maxey</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Raptors</t>
+          <t>76ers</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Cavaliers</t>
+          <t>Bucks</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G183" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H183" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I183" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J183" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -7780,92 +7780,92 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Suggs</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Hawks</t>
+          <t>Magic</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Jazz</t>
+          <t>Clippers</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G184" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H184" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J184" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45974</v>
+        <v>45980</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Onyeka</t>
+          <t>Donovan</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Okongwu</t>
+          <t>Clingan</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Hawks</t>
+          <t>Trail Blazers</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Jazz</t>
+          <t>Bulls</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H185" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45973</v>
+        <v>45978</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Nikola</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Reed</t>
+          <t>Jokic</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Pistons</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -7874,38 +7874,38 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G186" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H186" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45973</v>
+        <v>45978</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Craig</t>
+          <t>Mikal</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Porter Jr.</t>
+          <t>Bridges</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Cavaliers</t>
+          <t>Knicks</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -7914,118 +7914,118 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G187" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H187" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I187" t="n">
         <v>4</v>
       </c>
       <c r="J187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45972</v>
+        <v>45977</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Derrick</t>
+          <t>Keyonte</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>George</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Celtics</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>76ers</t>
+          <t>Bulls</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G188" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H188" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45971</v>
+        <v>45977</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Marcus</t>
+          <t>Alperen</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Smart</t>
+          <t>Sengun</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>Rockets</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>Magic</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G189" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H189" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J189" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45971</v>
+        <v>45977</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Lauri</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Wembanyama</t>
+          <t>Markkanen</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8034,336 +8034,336 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G190" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H190" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I190" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45971</v>
+        <v>45977</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Marcus</t>
+          <t>Jusuf</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Smart</t>
+          <t>Nurkic</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Lakers</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Hornets</t>
+          <t>Bulls</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G191" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H191" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45971</v>
+        <v>45977</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Cade</t>
+          <t>Josh</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Cunningham</t>
+          <t>Giddey</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Pistons</t>
+          <t>Bulls</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Wizards</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G192" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H192" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I192" t="n">
         <v>2</v>
       </c>
       <c r="J192" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45970</v>
+        <v>45976</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Jalen</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Duren</t>
+          <t>Edwards</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Pistons</t>
+          <t>Timberwolves</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>76ers</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H193" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I193" t="n">
         <v>2</v>
       </c>
       <c r="J193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45970</v>
+        <v>45975</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Reed</t>
+          <t>Mikal</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Sheppard</t>
+          <t>Bridges</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Rockets</t>
+          <t>Knicks</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Bucks</t>
+          <t>Heat</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G194" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J194" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45969</v>
+        <v>45975</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Jrue</t>
+          <t>Alperen</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Holiday</t>
+          <t>Sengun</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
+          <t>Rockets</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
           <t>Trail Blazers</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>Heat</t>
-        </is>
-      </c>
       <c r="F195" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G195" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H195" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J195" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45969</v>
+        <v>45975</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Nesmith</t>
+          <t>Harden</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Pacers</t>
+          <t>Clippers</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Nuggets</t>
+          <t>Mavericks</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J196" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45969</v>
+        <v>45975</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Harden</t>
+          <t>Fears</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Clippers</t>
+          <t>Pelicans</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Suns</t>
+          <t>Lakers</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G197" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45968</v>
+        <v>45974</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Giannis</t>
+          <t>Onyeka</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Antetokounmpo</t>
+          <t>Okongwu</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Bucks</t>
+          <t>Hawks</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Bulls</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G198" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H198" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I198" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J198" t="n">
         <v>2</v>
@@ -8371,113 +8371,113 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45968</v>
+        <v>45974</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Isaiah</t>
+          <t>Jalen</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Hartenstein</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Thunder</t>
+          <t>Hawks</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Kings</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G199" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H199" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45966</v>
+        <v>45974</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Moses</t>
+          <t>Scottie</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Moody</t>
+          <t>Barnes</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Warriors</t>
+          <t>Raptors</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Kings</t>
+          <t>Cavaliers</t>
         </is>
       </c>
       <c r="F200" t="n">
         <v>28</v>
       </c>
       <c r="G200" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I200" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45966</v>
+        <v>45973</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Kel'el</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Ware</t>
+          <t>Reed</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Heat</t>
+          <t>Pistons</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Nuggets</t>
+          <t>Bulls</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H201" t="n">
         <v>13</v>
@@ -8491,36 +8491,36 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45966</v>
+        <v>45973</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Alperen</t>
+          <t>Nikola</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Sengun</t>
+          <t>Jokic</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Rockets</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Grizzlies</t>
+          <t>Clippers</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G202" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H202" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -8531,79 +8531,79 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45966</v>
+        <v>45973</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Jalen</t>
+          <t>Craig</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Duren</t>
+          <t>Porter Jr.</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Pistons</t>
+          <t>Cavaliers</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Jazz</t>
+          <t>Heat</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G203" t="n">
+        <v>9</v>
+      </c>
+      <c r="H203" t="n">
+        <v>4</v>
+      </c>
+      <c r="I203" t="n">
+        <v>4</v>
+      </c>
+      <c r="J203" t="n">
         <v>3</v>
-      </c>
-      <c r="H203" t="n">
-        <v>22</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
-      <c r="J203" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45965</v>
+        <v>45972</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Shai</t>
+          <t>Derrick</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Gilgeous-Alexander</t>
+          <t>White</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Thunder</t>
+          <t>Celtics</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Clippers</t>
+          <t>76ers</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G204" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H204" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
@@ -8611,136 +8611,136 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45965</v>
+        <v>45971</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Scottie</t>
+          <t>Marcus</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Barnes</t>
+          <t>Smart</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Raptors</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Bucks</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G205" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45964</v>
+        <v>45971</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Kawhi</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Leonard</t>
+          <t>Wembanyama</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Clippers</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Heat</t>
+          <t>Bulls</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G206" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H206" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I206" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J206" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45964</v>
+        <v>45971</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Marcus</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Westbrook</t>
+          <t>Smart</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Kings</t>
+          <t>Lakers</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Nuggets</t>
+          <t>Hornets</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G207" t="n">
         <v>6</v>
       </c>
       <c r="H207" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45964</v>
+        <v>45971</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Ausar</t>
+          <t>Cade</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Cunningham</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -8750,220 +8750,220 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Grizzlies</t>
+          <t>Wizards</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H208" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I208" t="n">
         <v>2</v>
       </c>
       <c r="J208" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45963</v>
+        <v>45970</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Jalen</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Kalkbrenner</t>
+          <t>Duren</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Hornets</t>
+          <t>Pistons</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Jazz</t>
+          <t>76ers</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I209" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J209" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45963</v>
+        <v>45970</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Devin</t>
+          <t>Reed</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Booker</t>
+          <t>Sheppard</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Suns</t>
+          <t>Rockets</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Bucks</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G210" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45961</v>
+        <v>45969</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Kawhi</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Leonard</t>
+          <t>Nesmith</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Clippers</t>
+          <t>Pacers</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Pelicans</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G211" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45961</v>
+        <v>45969</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Tyrese</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Maxey</t>
+          <t>Harden</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>76ers</t>
+          <t>Clippers</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Celtics</t>
+          <t>Suns</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G212" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H212" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45960</v>
+        <v>45969</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Nikola</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Wembanyama</t>
+          <t>Jokic</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Heat</t>
+          <t>Pacers</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G213" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H213" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I213" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J213" t="n">
         <v>1</v>
@@ -8971,39 +8971,39 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45959</v>
+        <v>45969</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Jrue</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Holiday</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Suns</t>
+          <t>Trail Blazers</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Grizzlies</t>
+          <t>Heat</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H214" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="n">
         <v>4</v>
@@ -9011,39 +9011,39 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45959</v>
+        <v>45968</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Giannis</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Reaves</t>
+          <t>Antetokounmpo</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Lakers</t>
+          <t>Bucks</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Timberwolves</t>
+          <t>Bulls</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G215" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J215" t="n">
         <v>2</v>
@@ -9051,73 +9051,73 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45959</v>
+        <v>45968</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Jay</t>
+          <t>Isaiah</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Huff</t>
+          <t>Hartenstein</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Pacers</t>
+          <t>Thunder</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Mavericks</t>
+          <t>Kings</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G216" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I216" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45957</v>
+        <v>45966</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Jaden</t>
+          <t>Moses</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>McDaniels</t>
+          <t>Moody</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Timberwolves</t>
+          <t>Warriors</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Nuggets</t>
+          <t>Kings</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H217" t="n">
         <v>3</v>
@@ -9126,526 +9126,1406 @@
         <v>4</v>
       </c>
       <c r="J217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45957</v>
+        <v>45966</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Lauri</t>
+          <t>Kel'el</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Markkanen</t>
+          <t>Ware</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Jazz</t>
+          <t>Heat</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Suns</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="G218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45956</v>
+        <v>45966</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Giannis</t>
+          <t>Alperen</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Antetokounmpo</t>
+          <t>Sengun</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Bucks</t>
+          <t>Rockets</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Cavaliers</t>
+          <t>Grizzlies</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G219" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H219" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45956</v>
+        <v>45966</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Cam</t>
+          <t>Jusuf</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Nurkic</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>Pistons</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45956</v>
+        <v>45966</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Jalen</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Wembanyama</t>
+          <t>Duren</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Pistons</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Nets</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G221" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H221" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I221" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45956</v>
+        <v>45965</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Neemias</t>
+          <t>Shai</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Queta</t>
+          <t>Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Celtics</t>
+          <t>Thunder</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Pistons</t>
+          <t>Clippers</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G222" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H222" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I222" t="n">
         <v>3</v>
       </c>
       <c r="J222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45956</v>
+        <v>45965</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Scottie</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Reaves</t>
+          <t>Barnes</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Lakers</t>
+          <t>Raptors</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Kings</t>
+          <t>Bucks</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="G223" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H223" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J223" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45955</v>
+        <v>45964</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Chet</t>
+          <t>Kawhi</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Holmgren</t>
+          <t>Leonard</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Thunder</t>
+          <t>Clippers</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Hawks</t>
+          <t>Heat</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H224" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J224" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45954</v>
+        <v>45964</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Giannis</t>
+          <t>Ausar</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Antetokounmpo</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Bucks</t>
+          <t>Pistons</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Raptors</t>
+          <t>Grizzlies</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G225" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J225" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45954</v>
+        <v>45964</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Wembanyama</t>
+          <t>Westbrook</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Kings</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Pelicans</t>
+          <t>Nuggets</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H226" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I226" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45953</v>
+        <v>45963</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Shai</t>
+          <t>Devin</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Gilgeous-Alexander</t>
+          <t>Booker</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Thunder</t>
+          <t>Suns</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Pacers</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G227" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H227" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45952</v>
+        <v>45963</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Wembanyama</t>
+          <t>Kalkbrenner</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Hornets</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Mavericks</t>
+          <t>Jazz</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I228" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J228" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45952</v>
+        <v>45961</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Drew</t>
+          <t>Kawhi</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Eubanks</t>
+          <t>Leonard</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Kings</t>
+          <t>Clippers</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Suns</t>
+          <t>Pelicans</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H229" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I229" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J229" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Tyrese</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Maxey</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>76ers</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Celtics</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>26</v>
+      </c>
+      <c r="G230" t="n">
+        <v>14</v>
+      </c>
+      <c r="H230" t="n">
+        <v>8</v>
+      </c>
+      <c r="I230" t="n">
+        <v>2</v>
+      </c>
+      <c r="J230" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Wembanyama</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Heat</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>27</v>
+      </c>
+      <c r="G231" t="n">
+        <v>6</v>
+      </c>
+      <c r="H231" t="n">
+        <v>18</v>
+      </c>
+      <c r="I231" t="n">
+        <v>5</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Suns</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Grizzlies</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>20</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1</v>
+      </c>
+      <c r="H232" t="n">
+        <v>12</v>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Jay</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Huff</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Pacers</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Mavericks</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>5</v>
+      </c>
+      <c r="G233" t="n">
+        <v>2</v>
+      </c>
+      <c r="H233" t="n">
+        <v>2</v>
+      </c>
+      <c r="I233" t="n">
+        <v>4</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Reaves</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Lakers</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Timberwolves</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>28</v>
+      </c>
+      <c r="G234" t="n">
+        <v>16</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Nikola</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Vucevic</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Bulls</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Hawks</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>17</v>
+      </c>
+      <c r="G235" t="n">
+        <v>9</v>
+      </c>
+      <c r="H235" t="n">
+        <v>17</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Jaden</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>McDaniels</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Timberwolves</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Nuggets</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>25</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1</v>
+      </c>
+      <c r="H236" t="n">
+        <v>3</v>
+      </c>
+      <c r="I236" t="n">
+        <v>4</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Lauri</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Markkanen</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Jazz</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Suns</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>51</v>
+      </c>
+      <c r="G237" t="n">
+        <v>3</v>
+      </c>
+      <c r="H237" t="n">
+        <v>14</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Nikola</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Jokic</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Nuggets</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Timberwolves</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>25</v>
+      </c>
+      <c r="G238" t="n">
+        <v>10</v>
+      </c>
+      <c r="H238" t="n">
+        <v>19</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Wembanyama</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Nets</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>31</v>
+      </c>
+      <c r="G239" t="n">
+        <v>4</v>
+      </c>
+      <c r="H239" t="n">
+        <v>14</v>
+      </c>
+      <c r="I239" t="n">
+        <v>6</v>
+      </c>
+      <c r="J239" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Neemias</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Queta</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Celtics</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Pistons</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>4</v>
+      </c>
+      <c r="G240" t="n">
+        <v>3</v>
+      </c>
+      <c r="H240" t="n">
+        <v>6</v>
+      </c>
+      <c r="I240" t="n">
+        <v>3</v>
+      </c>
+      <c r="J240" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Giannis</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Antetokounmpo</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Bucks</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Cavaliers</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>40</v>
+      </c>
+      <c r="G241" t="n">
+        <v>9</v>
+      </c>
+      <c r="H241" t="n">
+        <v>14</v>
+      </c>
+      <c r="I241" t="n">
+        <v>2</v>
+      </c>
+      <c r="J241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Reaves</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Lakers</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Kings</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>51</v>
+      </c>
+      <c r="G242" t="n">
+        <v>9</v>
+      </c>
+      <c r="H242" t="n">
+        <v>11</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Cam</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>41</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0</v>
+      </c>
+      <c r="H243" t="n">
+        <v>2</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Nikola</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Jokic</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Nuggets</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Suns</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>14</v>
+      </c>
+      <c r="G244" t="n">
+        <v>15</v>
+      </c>
+      <c r="H244" t="n">
+        <v>14</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Chet</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Holmgren</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Thunder</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Hawks</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>31</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1</v>
+      </c>
+      <c r="H245" t="n">
+        <v>11</v>
+      </c>
+      <c r="I245" t="n">
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Giannis</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Antetokounmpo</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Bucks</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Raptors</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>31</v>
+      </c>
+      <c r="G246" t="n">
+        <v>7</v>
+      </c>
+      <c r="H246" t="n">
+        <v>20</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Wembanyama</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Pelicans</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>29</v>
+      </c>
+      <c r="G247" t="n">
+        <v>2</v>
+      </c>
+      <c r="H247" t="n">
+        <v>11</v>
+      </c>
+      <c r="I247" t="n">
+        <v>9</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Shai</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Gilgeous-Alexander</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Thunder</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Pacers</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>55</v>
+      </c>
+      <c r="G248" t="n">
+        <v>5</v>
+      </c>
+      <c r="H248" t="n">
+        <v>8</v>
+      </c>
+      <c r="I248" t="n">
+        <v>1</v>
+      </c>
+      <c r="J248" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Drew</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Eubanks</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Kings</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Suns</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>4</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0</v>
+      </c>
+      <c r="H249" t="n">
+        <v>4</v>
+      </c>
+      <c r="I249" t="n">
+        <v>4</v>
+      </c>
+      <c r="J249" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Wembanyama</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Mavericks</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>40</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1</v>
+      </c>
+      <c r="H250" t="n">
+        <v>15</v>
+      </c>
+      <c r="I250" t="n">
+        <v>3</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
         <v>45951</v>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Luka</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Doncic</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Lakers</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Warriors</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>43</v>
+      </c>
+      <c r="G251" t="n">
+        <v>9</v>
+      </c>
+      <c r="H251" t="n">
+        <v>12</v>
+      </c>
+      <c r="I251" t="n">
+        <v>1</v>
+      </c>
+      <c r="J251" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B252" t="inlineStr">
         <is>
           <t>Draymond</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
+      <c r="D252" t="inlineStr">
         <is>
           <t>Warriors</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr">
+      <c r="E252" t="inlineStr">
         <is>
           <t>Lakers</t>
         </is>
       </c>
-      <c r="F230" t="n">
+      <c r="F252" t="n">
         <v>8</v>
       </c>
-      <c r="G230" t="n">
+      <c r="G252" t="n">
         <v>9</v>
       </c>
-      <c r="H230" t="n">
+      <c r="H252" t="n">
         <v>7</v>
       </c>
-      <c r="I230" t="n">
-        <v>2</v>
-      </c>
-      <c r="J230" t="n">
+      <c r="I252" t="n">
+        <v>2</v>
+      </c>
+      <c r="J252" t="n">
         <v>1</v>
       </c>
     </row>
